--- a/output/实验结果.xlsx
+++ b/output/实验结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-8020" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="-8020" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="26">
   <si>
     <t>Test Instance</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>IGD</t>
+  </si>
+  <si>
+    <t>CMOEACD(8)</t>
+  </si>
+  <si>
+    <t>CMOEACD(5)</t>
   </si>
 </sst>
 </file>
@@ -429,13 +435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O373"/>
+  <dimension ref="A1:O749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B539" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A92" sqref="A92:XFD92"/>
+      <selection pane="bottomRight" activeCell="A564" sqref="A564:E749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,6 +451,7 @@
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -13038,7 +13045,7 @@
         <v>0.15052264870565599</v>
       </c>
     </row>
-    <row r="369" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C369">
         <v>0.22822244407831399</v>
       </c>
@@ -13061,7 +13068,7 @@
         <v>0.15462070735693201</v>
       </c>
     </row>
-    <row r="370" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B370">
         <v>15</v>
       </c>
@@ -13093,7 +13100,7 @@
         <v>0.14399500142506999</v>
       </c>
     </row>
-    <row r="371" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C371">
         <v>0.30726209251529302</v>
       </c>
@@ -13116,7 +13123,7 @@
         <v>0.17592974549761001</v>
       </c>
     </row>
-    <row r="372" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C372">
         <v>0.39703549596305199</v>
       </c>
@@ -13139,7 +13146,7 @@
         <v>0.242052355192104</v>
       </c>
     </row>
-    <row r="373" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C373" s="2">
         <v>32</v>
       </c>
@@ -13160,6 +13167,8394 @@
       </c>
       <c r="M373" s="2">
         <v>23</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>0</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1</v>
+      </c>
+      <c r="C377" t="s">
+        <v>4</v>
+      </c>
+      <c r="D377" t="s">
+        <v>24</v>
+      </c>
+      <c r="E377" t="s">
+        <v>5</v>
+      </c>
+      <c r="F377" t="s">
+        <v>7</v>
+      </c>
+      <c r="G377" t="s">
+        <v>8</v>
+      </c>
+      <c r="H377" t="s">
+        <v>9</v>
+      </c>
+      <c r="I377" t="s">
+        <v>10</v>
+      </c>
+      <c r="J377" t="s">
+        <v>11</v>
+      </c>
+      <c r="K377" t="s">
+        <v>12</v>
+      </c>
+      <c r="L377" t="s">
+        <v>13</v>
+      </c>
+      <c r="M377" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>15</v>
+      </c>
+      <c r="B378">
+        <v>3</v>
+      </c>
+      <c r="C378" s="1">
+        <v>4.2985322546301301E-4</v>
+      </c>
+      <c r="D378" s="1">
+        <v>4.1611644197709101E-4</v>
+      </c>
+      <c r="E378" s="1">
+        <v>4.2982734844281098E-4</v>
+      </c>
+      <c r="F378" s="1">
+        <v>4.2922887369358198E-4</v>
+      </c>
+      <c r="G378" s="1">
+        <v>4.3002261076170901E-4</v>
+      </c>
+      <c r="H378" s="1">
+        <v>4.2850522256718298E-4</v>
+      </c>
+      <c r="I378" s="1">
+        <v>4.2929872216241298E-4</v>
+      </c>
+      <c r="J378" s="1">
+        <v>4.2983987526778002E-4</v>
+      </c>
+      <c r="K378" s="1">
+        <v>4.29558075758866E-4</v>
+      </c>
+      <c r="L378" s="1">
+        <v>4.3032559214349901E-4</v>
+      </c>
+      <c r="M378" s="1">
+        <v>4.2947903948102497E-4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C379" s="1">
+        <v>4.3110775939452899E-4</v>
+      </c>
+      <c r="D379" s="1">
+        <v>4.3206843824898601E-4</v>
+      </c>
+      <c r="E379" s="1">
+        <v>4.3002569649916401E-4</v>
+      </c>
+      <c r="F379" s="1">
+        <v>4.3107473963898801E-4</v>
+      </c>
+      <c r="G379" s="1">
+        <v>4.3078315290151199E-4</v>
+      </c>
+      <c r="H379" s="1">
+        <v>4.30654621236583E-4</v>
+      </c>
+      <c r="I379" s="1">
+        <v>4.29501842348716E-4</v>
+      </c>
+      <c r="J379" s="1">
+        <v>4.3015056135377002E-4</v>
+      </c>
+      <c r="K379" s="1">
+        <v>4.31077073477558E-4</v>
+      </c>
+      <c r="L379" s="1">
+        <v>4.45917982706316E-4</v>
+      </c>
+      <c r="M379" s="1">
+        <v>4.3053035281575902E-4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C380" s="1">
+        <v>4.4891631524662698E-4</v>
+      </c>
+      <c r="D380" s="1">
+        <v>4.6195558098967098E-4</v>
+      </c>
+      <c r="E380" s="1">
+        <v>4.3138679625744802E-4</v>
+      </c>
+      <c r="F380" s="1">
+        <v>4.3194896183553898E-4</v>
+      </c>
+      <c r="G380" s="1">
+        <v>4.53312205711702E-4</v>
+      </c>
+      <c r="H380" s="1">
+        <v>4.3160163559311101E-4</v>
+      </c>
+      <c r="I380" s="1">
+        <v>4.3217100140827E-4</v>
+      </c>
+      <c r="J380" s="1">
+        <v>4.33211993208028E-4</v>
+      </c>
+      <c r="K380" s="1">
+        <v>4.8138301664225902E-4</v>
+      </c>
+      <c r="L380" s="1">
+        <v>4.7082444925310098E-4</v>
+      </c>
+      <c r="M380" s="1">
+        <v>4.6641508799043701E-4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B381">
+        <v>5</v>
+      </c>
+      <c r="C381">
+        <v>2.48614276879093E-3</v>
+      </c>
+      <c r="D381">
+        <v>2.6146552898928602E-3</v>
+      </c>
+      <c r="E381">
+        <v>2.4853117168108698E-3</v>
+      </c>
+      <c r="F381">
+        <v>2.4872369429795298E-3</v>
+      </c>
+      <c r="G381">
+        <v>2.4834133438216902E-3</v>
+      </c>
+      <c r="H381">
+        <v>2.4906205944657499E-3</v>
+      </c>
+      <c r="I381">
+        <v>2.48083802345142E-3</v>
+      </c>
+      <c r="J381">
+        <v>2.48005120107022E-3</v>
+      </c>
+      <c r="K381">
+        <v>2.4867251672010902E-3</v>
+      </c>
+      <c r="L381">
+        <v>2.4878277273136799E-3</v>
+      </c>
+      <c r="M381">
+        <v>2.4863677814498499E-3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C382">
+        <v>2.4874136805482002E-3</v>
+      </c>
+      <c r="D382">
+        <v>2.6196027013980802E-3</v>
+      </c>
+      <c r="E382">
+        <v>2.4950933828733102E-3</v>
+      </c>
+      <c r="F382">
+        <v>2.4919662243236E-3</v>
+      </c>
+      <c r="G382">
+        <v>2.4904558810832701E-3</v>
+      </c>
+      <c r="H382">
+        <v>2.49840147528863E-3</v>
+      </c>
+      <c r="I382">
+        <v>2.4883960927803298E-3</v>
+      </c>
+      <c r="J382">
+        <v>2.49033218121846E-3</v>
+      </c>
+      <c r="K382">
+        <v>2.4878899258845401E-3</v>
+      </c>
+      <c r="L382">
+        <v>2.50067796038092E-3</v>
+      </c>
+      <c r="M382">
+        <v>2.48887393682736E-3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C383">
+        <v>2.4994977540515298E-3</v>
+      </c>
+      <c r="D383">
+        <v>2.6881540355720799E-3</v>
+      </c>
+      <c r="E383">
+        <v>2.51652397437675E-3</v>
+      </c>
+      <c r="F383">
+        <v>2.4973368966907899E-3</v>
+      </c>
+      <c r="G383">
+        <v>2.5035474985732999E-3</v>
+      </c>
+      <c r="H383">
+        <v>2.5087215405262199E-3</v>
+      </c>
+      <c r="I383">
+        <v>2.5000081838206499E-3</v>
+      </c>
+      <c r="J383">
+        <v>2.5398997998057199E-3</v>
+      </c>
+      <c r="K383">
+        <v>2.5162949630316098E-3</v>
+      </c>
+      <c r="L383">
+        <v>2.53048315473415E-3</v>
+      </c>
+      <c r="M383">
+        <v>2.4956719257247999E-3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B384">
+        <v>8</v>
+      </c>
+      <c r="C384">
+        <v>1.9970931062186499E-3</v>
+      </c>
+      <c r="D384">
+        <v>2.2890781034751598E-3</v>
+      </c>
+      <c r="E384">
+        <v>1.9970597321360898E-3</v>
+      </c>
+      <c r="F384">
+        <v>1.9845085806489602E-3</v>
+      </c>
+      <c r="G384">
+        <v>1.9918334336313502E-3</v>
+      </c>
+      <c r="H384">
+        <v>1.9981588058791901E-3</v>
+      </c>
+      <c r="I384">
+        <v>1.98978985826668E-3</v>
+      </c>
+      <c r="J384">
+        <v>1.9977331053901101E-3</v>
+      </c>
+      <c r="K384">
+        <v>2.0285983194224498E-3</v>
+      </c>
+      <c r="L384">
+        <v>2.0184758834388499E-3</v>
+      </c>
+      <c r="M384">
+        <v>2.0300866544762301E-3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C385">
+        <v>2.0551560149701998E-3</v>
+      </c>
+      <c r="D385">
+        <v>2.33575199267996E-3</v>
+      </c>
+      <c r="E385">
+        <v>2.0466298132914302E-3</v>
+      </c>
+      <c r="F385">
+        <v>2.0830742424281399E-3</v>
+      </c>
+      <c r="G385">
+        <v>2.0272016635674299E-3</v>
+      </c>
+      <c r="H385">
+        <v>2.0735410350612399E-3</v>
+      </c>
+      <c r="I385">
+        <v>2.0280241580903401E-3</v>
+      </c>
+      <c r="J385">
+        <v>2.03022893181515E-3</v>
+      </c>
+      <c r="K385">
+        <v>2.0425232175296602E-3</v>
+      </c>
+      <c r="L385">
+        <v>2.0511508324200299E-3</v>
+      </c>
+      <c r="M385">
+        <v>2.1244963223022101E-3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C386">
+        <v>2.0815596658236E-3</v>
+      </c>
+      <c r="D386">
+        <v>2.4161767480935701E-3</v>
+      </c>
+      <c r="E386">
+        <v>2.0680311937848498E-3</v>
+      </c>
+      <c r="F386">
+        <v>2.0975590542359102E-3</v>
+      </c>
+      <c r="G386">
+        <v>2.04478446189675E-3</v>
+      </c>
+      <c r="H386">
+        <v>2.0856633601594298E-3</v>
+      </c>
+      <c r="I386">
+        <v>2.0590743077830201E-3</v>
+      </c>
+      <c r="J386">
+        <v>2.0685021275236399E-3</v>
+      </c>
+      <c r="K386">
+        <v>2.0908144808673501E-3</v>
+      </c>
+      <c r="L386">
+        <v>2.1246445844731298E-3</v>
+      </c>
+      <c r="M386">
+        <v>2.28114860748927E-3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B387">
+        <v>10</v>
+      </c>
+      <c r="C387">
+        <v>2.1577923019768502E-3</v>
+      </c>
+      <c r="D387">
+        <v>2.40675513674374E-3</v>
+      </c>
+      <c r="E387">
+        <v>2.1398292599396399E-3</v>
+      </c>
+      <c r="F387">
+        <v>2.1755993550891198E-3</v>
+      </c>
+      <c r="G387">
+        <v>2.1198662315110501E-3</v>
+      </c>
+      <c r="H387">
+        <v>2.1522947210964598E-3</v>
+      </c>
+      <c r="I387">
+        <v>2.1467703180878899E-3</v>
+      </c>
+      <c r="J387">
+        <v>2.16207277854273E-3</v>
+      </c>
+      <c r="K387">
+        <v>2.1575523411662099E-3</v>
+      </c>
+      <c r="L387">
+        <v>2.1316308887354501E-3</v>
+      </c>
+      <c r="M387">
+        <v>2.1608518420983798E-3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C388">
+        <v>2.1905697462281902E-3</v>
+      </c>
+      <c r="D388">
+        <v>2.5960697266853398E-3</v>
+      </c>
+      <c r="E388">
+        <v>2.1859460501436798E-3</v>
+      </c>
+      <c r="F388">
+        <v>2.1921219325213102E-3</v>
+      </c>
+      <c r="G388">
+        <v>2.1758661472196399E-3</v>
+      </c>
+      <c r="H388">
+        <v>2.1819881655484701E-3</v>
+      </c>
+      <c r="I388">
+        <v>2.1743263734998E-3</v>
+      </c>
+      <c r="J388">
+        <v>2.1703723068481899E-3</v>
+      </c>
+      <c r="K388">
+        <v>2.1863976580605098E-3</v>
+      </c>
+      <c r="L388">
+        <v>2.1810290158013001E-3</v>
+      </c>
+      <c r="M388">
+        <v>2.1824663895134299E-3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C389">
+        <v>2.2079080142067501E-3</v>
+      </c>
+      <c r="D389">
+        <v>2.96293786560863E-3</v>
+      </c>
+      <c r="E389">
+        <v>2.1907296123881898E-3</v>
+      </c>
+      <c r="F389">
+        <v>2.21863088289682E-3</v>
+      </c>
+      <c r="G389">
+        <v>2.1830405024020798E-3</v>
+      </c>
+      <c r="H389">
+        <v>2.1960835201254802E-3</v>
+      </c>
+      <c r="I389">
+        <v>2.2018354560005599E-3</v>
+      </c>
+      <c r="J389">
+        <v>2.1824219980763298E-3</v>
+      </c>
+      <c r="K389">
+        <v>2.2181829025433699E-3</v>
+      </c>
+      <c r="L389">
+        <v>2.2249424876499002E-3</v>
+      </c>
+      <c r="M389">
+        <v>2.2597233096874202E-3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B390">
+        <v>15</v>
+      </c>
+      <c r="C390">
+        <v>3.1914709499210399E-3</v>
+      </c>
+      <c r="D390">
+        <v>3.6098822867230698E-3</v>
+      </c>
+      <c r="E390">
+        <v>3.5058738055519598E-3</v>
+      </c>
+      <c r="F390">
+        <v>3.4874053305743698E-3</v>
+      </c>
+      <c r="G390">
+        <v>3.4456878660406799E-3</v>
+      </c>
+      <c r="H390">
+        <v>3.4884564992314999E-3</v>
+      </c>
+      <c r="I390">
+        <v>3.3630416722996602E-3</v>
+      </c>
+      <c r="J390">
+        <v>3.4956050093033E-3</v>
+      </c>
+      <c r="K390">
+        <v>3.4098703288862899E-3</v>
+      </c>
+      <c r="L390">
+        <v>3.48523209259047E-3</v>
+      </c>
+      <c r="M390">
+        <v>3.01436736345313E-3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C391">
+        <v>3.5223481928836498E-3</v>
+      </c>
+      <c r="D391">
+        <v>3.7554067358026798E-3</v>
+      </c>
+      <c r="E391">
+        <v>3.6065079089419999E-3</v>
+      </c>
+      <c r="F391">
+        <v>3.5895128322131599E-3</v>
+      </c>
+      <c r="G391">
+        <v>3.6005728770129798E-3</v>
+      </c>
+      <c r="H391">
+        <v>3.63387072859323E-3</v>
+      </c>
+      <c r="I391">
+        <v>3.6442126052308901E-3</v>
+      </c>
+      <c r="J391">
+        <v>3.58000657896081E-3</v>
+      </c>
+      <c r="K391">
+        <v>3.6416392612776799E-3</v>
+      </c>
+      <c r="L391">
+        <v>3.6470251745575901E-3</v>
+      </c>
+      <c r="M391">
+        <v>3.5273473931845198E-3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C392">
+        <v>3.7223498692774901E-3</v>
+      </c>
+      <c r="D392">
+        <v>3.8009759513865501E-3</v>
+      </c>
+      <c r="E392">
+        <v>3.6812551554499902E-3</v>
+      </c>
+      <c r="F392">
+        <v>3.6383720777869799E-3</v>
+      </c>
+      <c r="G392">
+        <v>3.7241221708040101E-3</v>
+      </c>
+      <c r="H392">
+        <v>3.65926630126618E-3</v>
+      </c>
+      <c r="I392">
+        <v>3.6984684502372198E-3</v>
+      </c>
+      <c r="J392">
+        <v>3.6613343492130899E-3</v>
+      </c>
+      <c r="K392">
+        <v>3.7343874096326E-3</v>
+      </c>
+      <c r="L392">
+        <v>3.7386770860308401E-3</v>
+      </c>
+      <c r="M392">
+        <v>3.64111391242098E-3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>16</v>
+      </c>
+      <c r="B393">
+        <v>3</v>
+      </c>
+      <c r="C393">
+        <v>0.12657430126087199</v>
+      </c>
+      <c r="D393">
+        <v>0.12660132315463801</v>
+      </c>
+      <c r="E393">
+        <v>0.12655213863840001</v>
+      </c>
+      <c r="F393">
+        <v>0.12655090111674</v>
+      </c>
+      <c r="G393">
+        <v>0.12654836433212199</v>
+      </c>
+      <c r="H393" s="1">
+        <v>9.7924537419731106E-4</v>
+      </c>
+      <c r="I393">
+        <v>0.126569771838453</v>
+      </c>
+      <c r="J393">
+        <v>0.12656860319927901</v>
+      </c>
+      <c r="K393">
+        <v>0.12658703918981901</v>
+      </c>
+      <c r="L393" s="1">
+        <v>9.9119447387344302E-4</v>
+      </c>
+      <c r="M393">
+        <v>0.12657265831327799</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C394">
+        <v>0.12658974997366201</v>
+      </c>
+      <c r="D394">
+        <v>0.126719691450764</v>
+      </c>
+      <c r="E394">
+        <v>0.126586233867167</v>
+      </c>
+      <c r="F394">
+        <v>0.126587967206504</v>
+      </c>
+      <c r="G394">
+        <v>0.12659469320248601</v>
+      </c>
+      <c r="H394">
+        <v>0.126546544126176</v>
+      </c>
+      <c r="I394">
+        <v>0.12658032413512699</v>
+      </c>
+      <c r="J394">
+        <v>0.12657502710377999</v>
+      </c>
+      <c r="K394">
+        <v>0.12659391190674699</v>
+      </c>
+      <c r="L394">
+        <v>0.126577069907094</v>
+      </c>
+      <c r="M394">
+        <v>0.12658339941994201</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C395">
+        <v>0.126604193430117</v>
+      </c>
+      <c r="D395">
+        <v>0.126817143331211</v>
+      </c>
+      <c r="E395">
+        <v>0.12660384720660101</v>
+      </c>
+      <c r="F395">
+        <v>0.12662302044416801</v>
+      </c>
+      <c r="G395">
+        <v>0.12661348396627101</v>
+      </c>
+      <c r="H395">
+        <v>0.12658431696417899</v>
+      </c>
+      <c r="I395">
+        <v>0.12660979322362101</v>
+      </c>
+      <c r="J395">
+        <v>0.12660854648627101</v>
+      </c>
+      <c r="K395">
+        <v>0.126625528662068</v>
+      </c>
+      <c r="L395">
+        <v>0.12659531787652101</v>
+      </c>
+      <c r="M395">
+        <v>0.12660643856370901</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B396">
+        <v>5</v>
+      </c>
+      <c r="C396">
+        <v>0.270164476401416</v>
+      </c>
+      <c r="D396">
+        <v>0.26998917012951201</v>
+      </c>
+      <c r="E396">
+        <v>3.8520408055050401E-2</v>
+      </c>
+      <c r="F396">
+        <v>0.27018852489568002</v>
+      </c>
+      <c r="G396">
+        <v>4.0766493818166901E-3</v>
+      </c>
+      <c r="H396">
+        <v>4.1773166873334197E-3</v>
+      </c>
+      <c r="I396">
+        <v>0.27019091626191499</v>
+      </c>
+      <c r="J396">
+        <v>1.06785358706886E-2</v>
+      </c>
+      <c r="K396">
+        <v>0.27014149213280297</v>
+      </c>
+      <c r="L396">
+        <v>0.27020511542394099</v>
+      </c>
+      <c r="M396">
+        <v>0.27019003892064603</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C397">
+        <v>0.27023798944822203</v>
+      </c>
+      <c r="D397">
+        <v>0.270025458622216</v>
+      </c>
+      <c r="E397">
+        <v>0.27021355359103699</v>
+      </c>
+      <c r="F397">
+        <v>0.27023352273787599</v>
+      </c>
+      <c r="G397">
+        <v>0.27016485953513902</v>
+      </c>
+      <c r="H397">
+        <v>0.270255974728565</v>
+      </c>
+      <c r="I397">
+        <v>0.270250465173556</v>
+      </c>
+      <c r="J397">
+        <v>0.270183421543708</v>
+      </c>
+      <c r="K397">
+        <v>0.27022553082371598</v>
+      </c>
+      <c r="L397">
+        <v>0.270228691908036</v>
+      </c>
+      <c r="M397">
+        <v>0.27022089473315702</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C398">
+        <v>0.27029757734230597</v>
+      </c>
+      <c r="D398">
+        <v>0.27005480619553501</v>
+      </c>
+      <c r="E398">
+        <v>0.27027060775066197</v>
+      </c>
+      <c r="F398">
+        <v>0.27029164870872202</v>
+      </c>
+      <c r="G398">
+        <v>0.270314407658797</v>
+      </c>
+      <c r="H398">
+        <v>0.27028473386380403</v>
+      </c>
+      <c r="I398">
+        <v>0.27030501476755198</v>
+      </c>
+      <c r="J398">
+        <v>0.27023328227017601</v>
+      </c>
+      <c r="K398">
+        <v>0.27036857216558202</v>
+      </c>
+      <c r="L398">
+        <v>0.27024358274482901</v>
+      </c>
+      <c r="M398">
+        <v>0.27023327422561499</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B399">
+        <v>8</v>
+      </c>
+      <c r="C399">
+        <v>0.108409610559822</v>
+      </c>
+      <c r="D399">
+        <v>0.108198181744938</v>
+      </c>
+      <c r="E399">
+        <v>0.10837938822795599</v>
+      </c>
+      <c r="F399">
+        <v>0.108401121758601</v>
+      </c>
+      <c r="G399">
+        <v>0.10837478993298599</v>
+      </c>
+      <c r="H399">
+        <v>3.8049975739508201E-3</v>
+      </c>
+      <c r="I399">
+        <v>0.10839036137494</v>
+      </c>
+      <c r="J399">
+        <v>0.108387049229884</v>
+      </c>
+      <c r="K399">
+        <v>0.10840809727391</v>
+      </c>
+      <c r="L399">
+        <v>0.10837440842813301</v>
+      </c>
+      <c r="M399">
+        <v>0.108391848220303</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C400">
+        <v>0.108410647734953</v>
+      </c>
+      <c r="D400">
+        <v>0.108245095567268</v>
+      </c>
+      <c r="E400">
+        <v>0.108412337205505</v>
+      </c>
+      <c r="F400">
+        <v>0.1084219384425</v>
+      </c>
+      <c r="G400">
+        <v>0.108405488478059</v>
+      </c>
+      <c r="H400">
+        <v>0.108403713061735</v>
+      </c>
+      <c r="I400">
+        <v>0.10842440918987201</v>
+      </c>
+      <c r="J400">
+        <v>0.10840283541031299</v>
+      </c>
+      <c r="K400">
+        <v>0.10842287088612799</v>
+      </c>
+      <c r="L400">
+        <v>0.108404551961527</v>
+      </c>
+      <c r="M400">
+        <v>0.10841549714253</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C401">
+        <v>0.108421349688754</v>
+      </c>
+      <c r="D401">
+        <v>0.108345850475338</v>
+      </c>
+      <c r="E401">
+        <v>0.108451658629398</v>
+      </c>
+      <c r="F401">
+        <v>0.108450540116567</v>
+      </c>
+      <c r="G401">
+        <v>0.108427109566164</v>
+      </c>
+      <c r="H401">
+        <v>0.10843787967415799</v>
+      </c>
+      <c r="I401">
+        <v>0.10844318702035299</v>
+      </c>
+      <c r="J401">
+        <v>0.108433997972038</v>
+      </c>
+      <c r="K401">
+        <v>0.10845318930226699</v>
+      </c>
+      <c r="L401">
+        <v>0.10842136997759901</v>
+      </c>
+      <c r="M401">
+        <v>0.108438532109899</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B402">
+        <v>10</v>
+      </c>
+      <c r="C402">
+        <v>0.13191312197795799</v>
+      </c>
+      <c r="D402">
+        <v>0.13178170234735001</v>
+      </c>
+      <c r="E402">
+        <v>0.13190936117707999</v>
+      </c>
+      <c r="F402">
+        <v>0.13190058012563899</v>
+      </c>
+      <c r="G402">
+        <v>4.1800064051143596E-3</v>
+      </c>
+      <c r="H402">
+        <v>4.2212692021125799E-3</v>
+      </c>
+      <c r="I402">
+        <v>0.131906380623147</v>
+      </c>
+      <c r="J402">
+        <v>4.2249525464321796E-3</v>
+      </c>
+      <c r="K402">
+        <v>0.131924102837223</v>
+      </c>
+      <c r="L402">
+        <v>0.131905184215004</v>
+      </c>
+      <c r="M402">
+        <v>0.13190347503809299</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C403">
+        <v>0.13192109610839201</v>
+      </c>
+      <c r="D403">
+        <v>0.131819138389071</v>
+      </c>
+      <c r="E403">
+        <v>0.131919929396319</v>
+      </c>
+      <c r="F403">
+        <v>0.13193114940112399</v>
+      </c>
+      <c r="G403">
+        <v>0.131918403761494</v>
+      </c>
+      <c r="H403">
+        <v>0.131927354317454</v>
+      </c>
+      <c r="I403">
+        <v>0.13192570475750101</v>
+      </c>
+      <c r="J403">
+        <v>0.13194176535590699</v>
+      </c>
+      <c r="K403">
+        <v>0.13192983841622999</v>
+      </c>
+      <c r="L403">
+        <v>0.131915155080539</v>
+      </c>
+      <c r="M403">
+        <v>0.13192301394925099</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C404">
+        <v>0.13196232708864999</v>
+      </c>
+      <c r="D404">
+        <v>0.13188318756600301</v>
+      </c>
+      <c r="E404">
+        <v>0.13194896607769899</v>
+      </c>
+      <c r="F404">
+        <v>0.13198365373969001</v>
+      </c>
+      <c r="G404">
+        <v>0.13194314123894299</v>
+      </c>
+      <c r="H404">
+        <v>0.13195694574394401</v>
+      </c>
+      <c r="I404">
+        <v>0.131938637595089</v>
+      </c>
+      <c r="J404">
+        <v>0.13194472725418699</v>
+      </c>
+      <c r="K404">
+        <v>0.13195808550431101</v>
+      </c>
+      <c r="L404">
+        <v>0.13192771282205501</v>
+      </c>
+      <c r="M404">
+        <v>0.13193918537774499</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B405">
+        <v>15</v>
+      </c>
+      <c r="C405">
+        <v>6.0990582137887099E-3</v>
+      </c>
+      <c r="D405">
+        <v>0.13176192832785599</v>
+      </c>
+      <c r="E405">
+        <v>6.0839100764427199E-3</v>
+      </c>
+      <c r="F405">
+        <v>6.0698654549638E-3</v>
+      </c>
+      <c r="G405">
+        <v>6.26606358250998E-3</v>
+      </c>
+      <c r="H405">
+        <v>6.0397087076207003E-3</v>
+      </c>
+      <c r="I405">
+        <v>6.0589713958253098E-3</v>
+      </c>
+      <c r="J405">
+        <v>6.1708298064641499E-3</v>
+      </c>
+      <c r="K405">
+        <v>6.18220106136154E-3</v>
+      </c>
+      <c r="L405">
+        <v>6.2467831282777596E-3</v>
+      </c>
+      <c r="M405">
+        <v>6.2058903643537004E-3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C406">
+        <v>6.2505673032610199E-3</v>
+      </c>
+      <c r="D406">
+        <v>0.13204863009519499</v>
+      </c>
+      <c r="E406">
+        <v>6.2593660377142299E-3</v>
+      </c>
+      <c r="F406">
+        <v>6.1973956522624199E-3</v>
+      </c>
+      <c r="G406">
+        <v>6.4554013399839598E-3</v>
+      </c>
+      <c r="H406">
+        <v>6.3533687400657802E-3</v>
+      </c>
+      <c r="I406">
+        <v>0.13201485153977699</v>
+      </c>
+      <c r="J406">
+        <v>0.132018972456377</v>
+      </c>
+      <c r="K406">
+        <v>6.9488691314985298E-3</v>
+      </c>
+      <c r="L406">
+        <v>6.7364383490701304E-3</v>
+      </c>
+      <c r="M406">
+        <v>6.4437374779002399E-3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C407">
+        <v>0.13193788139270601</v>
+      </c>
+      <c r="D407">
+        <v>0.132713172743224</v>
+      </c>
+      <c r="E407">
+        <v>0.13214223330849301</v>
+      </c>
+      <c r="F407">
+        <v>0.132564477866009</v>
+      </c>
+      <c r="G407">
+        <v>0.132140277836368</v>
+      </c>
+      <c r="H407">
+        <v>0.13253021154015801</v>
+      </c>
+      <c r="I407">
+        <v>0.132464560695182</v>
+      </c>
+      <c r="J407">
+        <v>0.13236832244815799</v>
+      </c>
+      <c r="K407">
+        <v>0.13204103807522999</v>
+      </c>
+      <c r="L407">
+        <v>0.13260532864281999</v>
+      </c>
+      <c r="M407">
+        <v>0.132186752826016</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>17</v>
+      </c>
+      <c r="B408">
+        <v>3</v>
+      </c>
+      <c r="C408" s="1">
+        <v>9.3292864041359701E-4</v>
+      </c>
+      <c r="D408">
+        <v>1.9988359445630901E-3</v>
+      </c>
+      <c r="E408">
+        <v>1.1784722793333599E-3</v>
+      </c>
+      <c r="F408">
+        <v>1.5577132638438401E-3</v>
+      </c>
+      <c r="G408">
+        <v>1.69106593568168E-3</v>
+      </c>
+      <c r="H408">
+        <v>2.19867277991251E-3</v>
+      </c>
+      <c r="I408">
+        <v>2.3575233029348702E-3</v>
+      </c>
+      <c r="J408">
+        <v>3.0797580898789898E-3</v>
+      </c>
+      <c r="K408">
+        <v>3.2820834379139502E-3</v>
+      </c>
+      <c r="L408">
+        <v>3.65863719970351E-3</v>
+      </c>
+      <c r="M408">
+        <v>4.4942785855135196E-3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C409">
+        <v>1.09838598633863E-3</v>
+      </c>
+      <c r="D409">
+        <v>2.0583573464903102E-3</v>
+      </c>
+      <c r="E409">
+        <v>1.2346551659862201E-3</v>
+      </c>
+      <c r="F409">
+        <v>1.6459540327614199E-3</v>
+      </c>
+      <c r="G409">
+        <v>2.02329431016248E-3</v>
+      </c>
+      <c r="H409">
+        <v>2.2033683327610698E-3</v>
+      </c>
+      <c r="I409">
+        <v>2.41394062597429E-3</v>
+      </c>
+      <c r="J409">
+        <v>3.2121537342952701E-3</v>
+      </c>
+      <c r="K409">
+        <v>3.3538782623358E-3</v>
+      </c>
+      <c r="L409">
+        <v>3.8893017023462202E-3</v>
+      </c>
+      <c r="M409">
+        <v>4.72478885390289E-3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C410">
+        <v>1.5243326144580101E-3</v>
+      </c>
+      <c r="D410">
+        <v>2.48232639300143E-3</v>
+      </c>
+      <c r="E410">
+        <v>1.4814484381287501E-3</v>
+      </c>
+      <c r="F410">
+        <v>1.97720743080537E-3</v>
+      </c>
+      <c r="G410">
+        <v>2.16375574843499E-3</v>
+      </c>
+      <c r="H410">
+        <v>2.3521240410133799E-3</v>
+      </c>
+      <c r="I410">
+        <v>2.7464267971533101E-3</v>
+      </c>
+      <c r="J410">
+        <v>3.4508073804752899E-3</v>
+      </c>
+      <c r="K410">
+        <v>3.5530093503878201E-3</v>
+      </c>
+      <c r="L410">
+        <v>4.2250200516131403E-3</v>
+      </c>
+      <c r="M410" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B411">
+        <v>5</v>
+      </c>
+      <c r="C411">
+        <v>4.05749104117651E-3</v>
+      </c>
+      <c r="D411">
+        <v>5.4881941109948297E-3</v>
+      </c>
+      <c r="E411">
+        <v>4.1899356791611896E-3</v>
+      </c>
+      <c r="F411">
+        <v>4.7292659716370597E-3</v>
+      </c>
+      <c r="G411">
+        <v>4.8474423488317903E-3</v>
+      </c>
+      <c r="H411">
+        <v>5.3339634057157697E-3</v>
+      </c>
+      <c r="I411">
+        <v>6.1075669007663496E-3</v>
+      </c>
+      <c r="J411">
+        <v>6.7727635703041297E-3</v>
+      </c>
+      <c r="K411">
+        <v>7.0574646879155703E-3</v>
+      </c>
+      <c r="L411">
+        <v>7.9073531564505199E-3</v>
+      </c>
+      <c r="M411">
+        <v>9.6368482405534105E-3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C412">
+        <v>4.2123536869395498E-3</v>
+      </c>
+      <c r="D412">
+        <v>5.6768421344514496E-3</v>
+      </c>
+      <c r="E412">
+        <v>4.4111382315804399E-3</v>
+      </c>
+      <c r="F412">
+        <v>4.9062558642923998E-3</v>
+      </c>
+      <c r="G412">
+        <v>5.0269486344168401E-3</v>
+      </c>
+      <c r="H412">
+        <v>5.42371791699212E-3</v>
+      </c>
+      <c r="I412">
+        <v>6.4110535173939696E-3</v>
+      </c>
+      <c r="J412">
+        <v>6.8968657334194296E-3</v>
+      </c>
+      <c r="K412">
+        <v>7.2510078693821898E-3</v>
+      </c>
+      <c r="L412">
+        <v>8.0253473958029897E-3</v>
+      </c>
+      <c r="M412">
+        <v>1.00081524342195E-2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C413">
+        <v>4.4303817175559597E-3</v>
+      </c>
+      <c r="D413">
+        <v>6.0017588132316897E-3</v>
+      </c>
+      <c r="E413">
+        <v>4.65393024931354E-3</v>
+      </c>
+      <c r="F413">
+        <v>5.08381883157319E-3</v>
+      </c>
+      <c r="G413">
+        <v>5.23974085517071E-3</v>
+      </c>
+      <c r="H413">
+        <v>5.7051158586677196E-3</v>
+      </c>
+      <c r="I413">
+        <v>6.5593550200181002E-3</v>
+      </c>
+      <c r="J413">
+        <v>7.0345754793727303E-3</v>
+      </c>
+      <c r="K413">
+        <v>7.3193435000049201E-3</v>
+      </c>
+      <c r="L413">
+        <v>8.2916873578643101E-3</v>
+      </c>
+      <c r="M413">
+        <v>1.0379511063130099E-2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B414">
+        <v>8</v>
+      </c>
+      <c r="C414">
+        <v>2.8883214380051401E-3</v>
+      </c>
+      <c r="D414">
+        <v>3.00219292545168E-3</v>
+      </c>
+      <c r="E414">
+        <v>2.9323370934588502E-3</v>
+      </c>
+      <c r="F414">
+        <v>2.8991954010101901E-3</v>
+      </c>
+      <c r="G414">
+        <v>2.9073955626048799E-3</v>
+      </c>
+      <c r="H414">
+        <v>2.93260347445131E-3</v>
+      </c>
+      <c r="I414">
+        <v>3.1053956025030999E-3</v>
+      </c>
+      <c r="J414">
+        <v>3.1140771749501102E-3</v>
+      </c>
+      <c r="K414">
+        <v>3.4079470484011001E-3</v>
+      </c>
+      <c r="L414">
+        <v>3.7082338437548902E-3</v>
+      </c>
+      <c r="M414">
+        <v>3.9119279693485397E-3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C415">
+        <v>2.9477963410579301E-3</v>
+      </c>
+      <c r="D415">
+        <v>3.06944331523783E-3</v>
+      </c>
+      <c r="E415">
+        <v>2.9663870961069701E-3</v>
+      </c>
+      <c r="F415">
+        <v>2.9454981132656698E-3</v>
+      </c>
+      <c r="G415">
+        <v>3.0018056388394099E-3</v>
+      </c>
+      <c r="H415">
+        <v>3.02363112898204E-3</v>
+      </c>
+      <c r="I415">
+        <v>3.1425257135545498E-3</v>
+      </c>
+      <c r="J415">
+        <v>3.1856635457009298E-3</v>
+      </c>
+      <c r="K415">
+        <v>3.47885153997803E-3</v>
+      </c>
+      <c r="L415">
+        <v>3.7350811017439899E-3</v>
+      </c>
+      <c r="M415">
+        <v>3.9969164199453698E-3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C416">
+        <v>2.9805051382647998E-3</v>
+      </c>
+      <c r="D416">
+        <v>3.1502878854305499E-3</v>
+      </c>
+      <c r="E416">
+        <v>3.0546828622606201E-3</v>
+      </c>
+      <c r="F416">
+        <v>3.02482214469973E-3</v>
+      </c>
+      <c r="G416">
+        <v>3.06443891173227E-3</v>
+      </c>
+      <c r="H416">
+        <v>3.1075966751218198E-3</v>
+      </c>
+      <c r="I416">
+        <v>3.2481028445440498E-3</v>
+      </c>
+      <c r="J416">
+        <v>3.3765979285980199E-3</v>
+      </c>
+      <c r="K416">
+        <v>3.5636079927173301E-3</v>
+      </c>
+      <c r="L416">
+        <v>3.8783170926677598E-3</v>
+      </c>
+      <c r="M416">
+        <v>4.0467612994764699E-3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B417">
+        <v>10</v>
+      </c>
+      <c r="C417">
+        <v>3.0205824875114001E-3</v>
+      </c>
+      <c r="D417">
+        <v>3.06391198001981E-3</v>
+      </c>
+      <c r="E417">
+        <v>3.0165742339652501E-3</v>
+      </c>
+      <c r="F417">
+        <v>3.0444525678744402E-3</v>
+      </c>
+      <c r="G417">
+        <v>3.0804612581210298E-3</v>
+      </c>
+      <c r="H417">
+        <v>3.0663388019254098E-3</v>
+      </c>
+      <c r="I417">
+        <v>3.0918137969256701E-3</v>
+      </c>
+      <c r="J417">
+        <v>3.2746572737565398E-3</v>
+      </c>
+      <c r="K417">
+        <v>3.4547164349609501E-3</v>
+      </c>
+      <c r="L417">
+        <v>3.68671219841625E-3</v>
+      </c>
+      <c r="M417">
+        <v>3.9325911418611002E-3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C418">
+        <v>3.03784462981608E-3</v>
+      </c>
+      <c r="D418">
+        <v>3.0902011655927E-3</v>
+      </c>
+      <c r="E418">
+        <v>3.06277280425393E-3</v>
+      </c>
+      <c r="F418">
+        <v>3.0617788922006998E-3</v>
+      </c>
+      <c r="G418">
+        <v>3.1093675647307101E-3</v>
+      </c>
+      <c r="H418">
+        <v>3.0986275962441999E-3</v>
+      </c>
+      <c r="I418">
+        <v>3.1835942677104398E-3</v>
+      </c>
+      <c r="J418">
+        <v>3.3115303327378798E-3</v>
+      </c>
+      <c r="K418">
+        <v>3.4943332610057401E-3</v>
+      </c>
+      <c r="L418">
+        <v>3.7662949802711098E-3</v>
+      </c>
+      <c r="M418">
+        <v>3.9604435430069199E-3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C419">
+        <v>3.06730642609298E-3</v>
+      </c>
+      <c r="D419">
+        <v>3.1839785440466802E-3</v>
+      </c>
+      <c r="E419">
+        <v>3.08239039722611E-3</v>
+      </c>
+      <c r="F419">
+        <v>3.08925894402301E-3</v>
+      </c>
+      <c r="G419">
+        <v>3.2190069636158498E-3</v>
+      </c>
+      <c r="H419">
+        <v>3.1670795264477801E-3</v>
+      </c>
+      <c r="I419">
+        <v>3.2222196897162998E-3</v>
+      </c>
+      <c r="J419">
+        <v>3.3627587668709998E-3</v>
+      </c>
+      <c r="K419">
+        <v>3.5948687444910298E-3</v>
+      </c>
+      <c r="L419">
+        <v>3.7852642324253298E-3</v>
+      </c>
+      <c r="M419">
+        <v>4.0504297255077003E-3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B420">
+        <v>15</v>
+      </c>
+      <c r="C420">
+        <v>4.2314031990241798E-3</v>
+      </c>
+      <c r="D420">
+        <v>4.12031161929348E-3</v>
+      </c>
+      <c r="E420">
+        <v>4.2549026182719003E-3</v>
+      </c>
+      <c r="F420">
+        <v>4.2300326917701098E-3</v>
+      </c>
+      <c r="G420">
+        <v>4.2753255421546302E-3</v>
+      </c>
+      <c r="H420">
+        <v>4.2918385779310104E-3</v>
+      </c>
+      <c r="I420">
+        <v>4.3261479917877299E-3</v>
+      </c>
+      <c r="J420">
+        <v>4.3101276671378497E-3</v>
+      </c>
+      <c r="K420">
+        <v>4.3765913750152497E-3</v>
+      </c>
+      <c r="L420">
+        <v>4.54422297254156E-3</v>
+      </c>
+      <c r="M420">
+        <v>5.0236034757000997E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C421">
+        <v>4.2531034050769401E-3</v>
+      </c>
+      <c r="D421">
+        <v>4.1500868037622398E-3</v>
+      </c>
+      <c r="E421">
+        <v>4.2820066045645803E-3</v>
+      </c>
+      <c r="F421">
+        <v>4.2700471236496902E-3</v>
+      </c>
+      <c r="G421">
+        <v>4.2945221758130796E-3</v>
+      </c>
+      <c r="H421">
+        <v>4.3037592759173704E-3</v>
+      </c>
+      <c r="I421">
+        <v>4.3761299012472299E-3</v>
+      </c>
+      <c r="J421">
+        <v>4.3677054143145804E-3</v>
+      </c>
+      <c r="K421">
+        <v>4.4227625512546697E-3</v>
+      </c>
+      <c r="L421">
+        <v>4.5904260825554502E-3</v>
+      </c>
+      <c r="M421">
+        <v>5.0380170574914097E-3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C422">
+        <v>4.5088158181634799E-3</v>
+      </c>
+      <c r="D422">
+        <v>4.2993490551127998E-3</v>
+      </c>
+      <c r="E422">
+        <v>4.2939739759570101E-3</v>
+      </c>
+      <c r="F422">
+        <v>4.3114008070900397E-3</v>
+      </c>
+      <c r="G422">
+        <v>4.3062946162265E-3</v>
+      </c>
+      <c r="H422">
+        <v>4.3071690331244698E-3</v>
+      </c>
+      <c r="I422">
+        <v>4.4744434713672801E-3</v>
+      </c>
+      <c r="J422">
+        <v>4.3977018308156502E-3</v>
+      </c>
+      <c r="K422">
+        <v>4.4490618928542799E-3</v>
+      </c>
+      <c r="L422">
+        <v>4.68113057905998E-3</v>
+      </c>
+      <c r="M422">
+        <v>5.1602607218356701E-3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>19</v>
+      </c>
+      <c r="B423">
+        <v>3</v>
+      </c>
+      <c r="C423" s="1">
+        <v>6.7991408501856402E-4</v>
+      </c>
+      <c r="D423" s="1">
+        <v>4.9542402732092499E-4</v>
+      </c>
+      <c r="E423" s="1">
+        <v>6.4730464637338203E-4</v>
+      </c>
+      <c r="F423" s="1">
+        <v>7.11750206813834E-4</v>
+      </c>
+      <c r="G423" s="1">
+        <v>9.6283003898859504E-4</v>
+      </c>
+      <c r="H423">
+        <v>1.0739727317490299E-3</v>
+      </c>
+      <c r="I423">
+        <v>1.45481782652263E-3</v>
+      </c>
+      <c r="J423">
+        <v>1.8480725415520899E-3</v>
+      </c>
+      <c r="K423">
+        <v>2.3822806616118999E-3</v>
+      </c>
+      <c r="L423">
+        <v>3.15516663615457E-3</v>
+      </c>
+      <c r="M423">
+        <v>4.0091408945123501E-3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C424" s="1">
+        <v>7.2732599282161097E-4</v>
+      </c>
+      <c r="D424" s="1">
+        <v>5.8077885753422701E-4</v>
+      </c>
+      <c r="E424" s="1">
+        <v>7.3209938546630899E-4</v>
+      </c>
+      <c r="F424" s="1">
+        <v>9.8969037924329204E-4</v>
+      </c>
+      <c r="G424">
+        <v>1.1472199931728401E-3</v>
+      </c>
+      <c r="H424">
+        <v>1.1886902631101E-3</v>
+      </c>
+      <c r="I424">
+        <v>1.6729828613552E-3</v>
+      </c>
+      <c r="J424">
+        <v>2.1148157060183999E-3</v>
+      </c>
+      <c r="K424">
+        <v>2.6671164835443701E-3</v>
+      </c>
+      <c r="L424">
+        <v>3.4216563126680801E-3</v>
+      </c>
+      <c r="M424">
+        <v>4.0094413119630499E-3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C425">
+        <v>1.05578643782388E-3</v>
+      </c>
+      <c r="D425" s="1">
+        <v>6.8699688827020299E-4</v>
+      </c>
+      <c r="E425" s="1">
+        <v>8.1974059870995304E-4</v>
+      </c>
+      <c r="F425">
+        <v>1.2667856580240099E-3</v>
+      </c>
+      <c r="G425">
+        <v>1.2548536012117601E-3</v>
+      </c>
+      <c r="H425">
+        <v>1.2379249561749301E-3</v>
+      </c>
+      <c r="I425">
+        <v>1.80820081473149E-3</v>
+      </c>
+      <c r="J425">
+        <v>2.18595692814067E-3</v>
+      </c>
+      <c r="K425">
+        <v>2.8982722963832499E-3</v>
+      </c>
+      <c r="L425">
+        <v>3.6402548577289498E-3</v>
+      </c>
+      <c r="M425" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B426">
+        <v>5</v>
+      </c>
+      <c r="C426">
+        <v>2.5338259964949499E-3</v>
+      </c>
+      <c r="D426">
+        <v>2.8254640688241202E-3</v>
+      </c>
+      <c r="E426">
+        <v>2.5316962242812198E-3</v>
+      </c>
+      <c r="F426">
+        <v>2.5356492169138702E-3</v>
+      </c>
+      <c r="G426">
+        <v>2.8627670636262601E-3</v>
+      </c>
+      <c r="H426">
+        <v>2.8853476745250499E-3</v>
+      </c>
+      <c r="I426">
+        <v>2.7038507356483498E-3</v>
+      </c>
+      <c r="J426">
+        <v>2.5235293408290799E-3</v>
+      </c>
+      <c r="K426">
+        <v>2.5882627559333099E-3</v>
+      </c>
+      <c r="L426">
+        <v>5.4761454206858099E-3</v>
+      </c>
+      <c r="M426">
+        <v>7.5879381794821104E-3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C427">
+        <v>2.8808409361914399E-3</v>
+      </c>
+      <c r="D427">
+        <v>2.8642697419742499E-3</v>
+      </c>
+      <c r="E427">
+        <v>2.6050207355231901E-3</v>
+      </c>
+      <c r="F427">
+        <v>2.7139990455439899E-3</v>
+      </c>
+      <c r="G427">
+        <v>3.1901583094695301E-3</v>
+      </c>
+      <c r="H427">
+        <v>3.1902289855979802E-3</v>
+      </c>
+      <c r="I427">
+        <v>3.4383910511193599E-3</v>
+      </c>
+      <c r="J427">
+        <v>3.30942049166667E-3</v>
+      </c>
+      <c r="K427">
+        <v>4.3824233554964204E-3</v>
+      </c>
+      <c r="L427">
+        <v>5.6864842560312E-3</v>
+      </c>
+      <c r="M427">
+        <v>7.9590527936673292E-3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C428">
+        <v>3.1397678457540301E-3</v>
+      </c>
+      <c r="D428">
+        <v>2.9855175251483901E-3</v>
+      </c>
+      <c r="E428">
+        <v>3.0818396277777801E-3</v>
+      </c>
+      <c r="F428">
+        <v>3.1645586400007E-3</v>
+      </c>
+      <c r="G428">
+        <v>3.3161789428845698E-3</v>
+      </c>
+      <c r="H428">
+        <v>3.4168005227228899E-3</v>
+      </c>
+      <c r="I428">
+        <v>3.9125116366633197E-3</v>
+      </c>
+      <c r="J428">
+        <v>3.8006730073461099E-3</v>
+      </c>
+      <c r="K428">
+        <v>4.6285865454331098E-3</v>
+      </c>
+      <c r="L428">
+        <v>6.0717837854288902E-3</v>
+      </c>
+      <c r="M428">
+        <v>8.2168520004779599E-3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B429">
+        <v>8</v>
+      </c>
+      <c r="C429">
+        <v>2.06178038458677E-3</v>
+      </c>
+      <c r="D429">
+        <v>1.74225561308599E-3</v>
+      </c>
+      <c r="E429">
+        <v>2.0056403271284801E-3</v>
+      </c>
+      <c r="F429">
+        <v>2.0441202153869799E-3</v>
+      </c>
+      <c r="G429">
+        <v>2.0089798617573102E-3</v>
+      </c>
+      <c r="H429">
+        <v>2.0320001131368501E-3</v>
+      </c>
+      <c r="I429">
+        <v>2.0205289635001201E-3</v>
+      </c>
+      <c r="J429">
+        <v>2.02393723846068E-3</v>
+      </c>
+      <c r="K429">
+        <v>2.0514117488369598E-3</v>
+      </c>
+      <c r="L429">
+        <v>2.0694193247122201E-3</v>
+      </c>
+      <c r="M429">
+        <v>2.2125374037095598E-3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C430">
+        <v>2.1062812445569201E-3</v>
+      </c>
+      <c r="D430">
+        <v>1.8180238050200901E-3</v>
+      </c>
+      <c r="E430">
+        <v>2.07499840516393E-3</v>
+      </c>
+      <c r="F430">
+        <v>2.0695139698519399E-3</v>
+      </c>
+      <c r="G430">
+        <v>2.0756101262576201E-3</v>
+      </c>
+      <c r="H430">
+        <v>2.06605272617072E-3</v>
+      </c>
+      <c r="I430">
+        <v>2.0555015761902001E-3</v>
+      </c>
+      <c r="J430">
+        <v>2.0632912330438001E-3</v>
+      </c>
+      <c r="K430">
+        <v>2.0873306869547701E-3</v>
+      </c>
+      <c r="L430">
+        <v>2.27431777228447E-3</v>
+      </c>
+      <c r="M430">
+        <v>2.3841111435225701E-3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C431">
+        <v>2.1114120052620599E-3</v>
+      </c>
+      <c r="D431">
+        <v>1.95059915885442E-3</v>
+      </c>
+      <c r="E431">
+        <v>2.1270948837266799E-3</v>
+      </c>
+      <c r="F431">
+        <v>2.1380962060070299E-3</v>
+      </c>
+      <c r="G431">
+        <v>2.0785662797980502E-3</v>
+      </c>
+      <c r="H431">
+        <v>2.1454989058880499E-3</v>
+      </c>
+      <c r="I431">
+        <v>2.2186127171560902E-3</v>
+      </c>
+      <c r="J431">
+        <v>2.32056314654891E-3</v>
+      </c>
+      <c r="K431">
+        <v>2.2783096039427101E-3</v>
+      </c>
+      <c r="L431">
+        <v>2.6700524183661399E-3</v>
+      </c>
+      <c r="M431">
+        <v>2.8734755608353902E-3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B432">
+        <v>10</v>
+      </c>
+      <c r="C432">
+        <v>2.1907699546865199E-3</v>
+      </c>
+      <c r="D432">
+        <v>1.95719032267968E-3</v>
+      </c>
+      <c r="E432">
+        <v>2.1757108686674001E-3</v>
+      </c>
+      <c r="F432">
+        <v>2.16136430110334E-3</v>
+      </c>
+      <c r="G432">
+        <v>2.1752626915832302E-3</v>
+      </c>
+      <c r="H432">
+        <v>2.1728942525220799E-3</v>
+      </c>
+      <c r="I432">
+        <v>2.17436590270153E-3</v>
+      </c>
+      <c r="J432">
+        <v>2.18183363810329E-3</v>
+      </c>
+      <c r="K432">
+        <v>2.17410099053636E-3</v>
+      </c>
+      <c r="L432">
+        <v>2.2509791248855699E-3</v>
+      </c>
+      <c r="M432">
+        <v>2.1719020455524501E-3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C433">
+        <v>2.1939339152083799E-3</v>
+      </c>
+      <c r="D433">
+        <v>2.0191402800872598E-3</v>
+      </c>
+      <c r="E433">
+        <v>2.1948278394962801E-3</v>
+      </c>
+      <c r="F433">
+        <v>2.1961476382055399E-3</v>
+      </c>
+      <c r="G433">
+        <v>2.1845858933925801E-3</v>
+      </c>
+      <c r="H433">
+        <v>2.1910737452845198E-3</v>
+      </c>
+      <c r="I433">
+        <v>2.19260119719505E-3</v>
+      </c>
+      <c r="J433">
+        <v>2.2095799444412801E-3</v>
+      </c>
+      <c r="K433">
+        <v>2.2109767390120099E-3</v>
+      </c>
+      <c r="L433">
+        <v>2.4848596949605599E-3</v>
+      </c>
+      <c r="M433">
+        <v>2.19557338023032E-3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C434">
+        <v>2.2416213415653199E-3</v>
+      </c>
+      <c r="D434">
+        <v>2.3455713017528699E-3</v>
+      </c>
+      <c r="E434">
+        <v>2.2753849231958601E-3</v>
+      </c>
+      <c r="F434">
+        <v>2.2882950728838202E-3</v>
+      </c>
+      <c r="G434">
+        <v>2.2432995882001199E-3</v>
+      </c>
+      <c r="H434">
+        <v>2.2621063406211401E-3</v>
+      </c>
+      <c r="I434">
+        <v>2.2076785728553398E-3</v>
+      </c>
+      <c r="J434">
+        <v>2.2697710402438398E-3</v>
+      </c>
+      <c r="K434">
+        <v>2.5006260799683199E-3</v>
+      </c>
+      <c r="L434">
+        <v>2.63804731766275E-3</v>
+      </c>
+      <c r="M434">
+        <v>2.4156976544027599E-3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B435">
+        <v>15</v>
+      </c>
+      <c r="C435">
+        <v>3.4407104907022601E-3</v>
+      </c>
+      <c r="D435">
+        <v>3.4390509306693301E-3</v>
+      </c>
+      <c r="E435">
+        <v>3.6140144209110101E-3</v>
+      </c>
+      <c r="F435">
+        <v>3.2565389200693499E-3</v>
+      </c>
+      <c r="G435">
+        <v>3.5551917847401501E-3</v>
+      </c>
+      <c r="H435">
+        <v>3.46363652452099E-3</v>
+      </c>
+      <c r="I435">
+        <v>3.3059312589931102E-3</v>
+      </c>
+      <c r="J435">
+        <v>3.8165090455428499E-3</v>
+      </c>
+      <c r="K435">
+        <v>3.5649749775334399E-3</v>
+      </c>
+      <c r="L435">
+        <v>3.6944583490213598E-3</v>
+      </c>
+      <c r="M435">
+        <v>3.5192957262751199E-3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C436">
+        <v>3.7871751140339501E-3</v>
+      </c>
+      <c r="D436">
+        <v>3.5138608310668999E-3</v>
+      </c>
+      <c r="E436">
+        <v>3.7686165856411899E-3</v>
+      </c>
+      <c r="F436">
+        <v>3.80715224636647E-3</v>
+      </c>
+      <c r="G436">
+        <v>3.6696165563813899E-3</v>
+      </c>
+      <c r="H436">
+        <v>3.9316417037783104E-3</v>
+      </c>
+      <c r="I436">
+        <v>3.8238074873890001E-3</v>
+      </c>
+      <c r="J436">
+        <v>3.9197636938981496E-3</v>
+      </c>
+      <c r="K436">
+        <v>3.85264870747371E-3</v>
+      </c>
+      <c r="L436">
+        <v>3.7592447031209201E-3</v>
+      </c>
+      <c r="M436">
+        <v>3.9580204365884898E-3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C437">
+        <v>3.9744552681521298E-3</v>
+      </c>
+      <c r="D437">
+        <v>3.5820576481310801E-3</v>
+      </c>
+      <c r="E437">
+        <v>3.9380647398368201E-3</v>
+      </c>
+      <c r="F437">
+        <v>3.83476273041877E-3</v>
+      </c>
+      <c r="G437">
+        <v>4.0536809501112202E-3</v>
+      </c>
+      <c r="H437">
+        <v>3.9585230585266699E-3</v>
+      </c>
+      <c r="I437">
+        <v>3.9479404858294301E-3</v>
+      </c>
+      <c r="J437">
+        <v>3.97748919773574E-3</v>
+      </c>
+      <c r="K437">
+        <v>3.9456559486778101E-3</v>
+      </c>
+      <c r="L437">
+        <v>3.9995000617473802E-3</v>
+      </c>
+      <c r="M437">
+        <v>4.0269972125564404E-3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>20</v>
+      </c>
+      <c r="B438">
+        <v>3</v>
+      </c>
+      <c r="C438" s="1">
+        <v>8.8066857095211396E-4</v>
+      </c>
+      <c r="D438" s="1">
+        <v>8.0308633166425395E-4</v>
+      </c>
+      <c r="E438" s="1">
+        <v>8.68192183641167E-4</v>
+      </c>
+      <c r="F438" s="1">
+        <v>8.7415696639104104E-4</v>
+      </c>
+      <c r="G438" s="1">
+        <v>8.6881188110204597E-4</v>
+      </c>
+      <c r="H438" s="1">
+        <v>8.67918979990046E-4</v>
+      </c>
+      <c r="I438" s="1">
+        <v>8.84106399027832E-4</v>
+      </c>
+      <c r="J438" s="1">
+        <v>8.7433845502063001E-4</v>
+      </c>
+      <c r="K438" s="1">
+        <v>8.8255968164728602E-4</v>
+      </c>
+      <c r="L438" s="1">
+        <v>8.8511336179372896E-4</v>
+      </c>
+      <c r="M438" s="1">
+        <v>8.7829658579005295E-4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C439" s="1">
+        <v>8.8124991187139997E-4</v>
+      </c>
+      <c r="D439" s="1">
+        <v>8.4001393131884899E-4</v>
+      </c>
+      <c r="E439" s="1">
+        <v>8.8994154211701404E-4</v>
+      </c>
+      <c r="F439" s="1">
+        <v>8.8492851870553295E-4</v>
+      </c>
+      <c r="G439" s="1">
+        <v>8.9396276017897401E-4</v>
+      </c>
+      <c r="H439" s="1">
+        <v>8.9477996305985295E-4</v>
+      </c>
+      <c r="I439" s="1">
+        <v>8.88113932255892E-4</v>
+      </c>
+      <c r="J439" s="1">
+        <v>8.9213176955967402E-4</v>
+      </c>
+      <c r="K439" s="1">
+        <v>8.9521759798719298E-4</v>
+      </c>
+      <c r="L439" s="1">
+        <v>9.0033588386689996E-4</v>
+      </c>
+      <c r="M439" s="1">
+        <v>8.8893926616166502E-4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C440" s="1">
+        <v>8.87996822493393E-4</v>
+      </c>
+      <c r="D440" s="1">
+        <v>8.7076590382383599E-4</v>
+      </c>
+      <c r="E440" s="1">
+        <v>9.0985006108100497E-4</v>
+      </c>
+      <c r="F440" s="1">
+        <v>9.0882410675054701E-4</v>
+      </c>
+      <c r="G440" s="1">
+        <v>9.1292796216592995E-4</v>
+      </c>
+      <c r="H440" s="1">
+        <v>9.0660198935561798E-4</v>
+      </c>
+      <c r="I440" s="1">
+        <v>9.0239380645958502E-4</v>
+      </c>
+      <c r="J440" s="1">
+        <v>9.1041803183589901E-4</v>
+      </c>
+      <c r="K440" s="1">
+        <v>9.1156457155753797E-4</v>
+      </c>
+      <c r="L440" s="1">
+        <v>9.1262771520910402E-4</v>
+      </c>
+      <c r="M440" s="1">
+        <v>9.2031670741199705E-4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B441">
+        <v>5</v>
+      </c>
+      <c r="C441">
+        <v>3.64174488433787E-3</v>
+      </c>
+      <c r="D441">
+        <v>2.3962158531503101E-3</v>
+      </c>
+      <c r="E441">
+        <v>3.7304424624821299E-3</v>
+      </c>
+      <c r="F441">
+        <v>3.75274246056332E-3</v>
+      </c>
+      <c r="G441">
+        <v>3.7098594742842198E-3</v>
+      </c>
+      <c r="H441">
+        <v>3.7107948182449699E-3</v>
+      </c>
+      <c r="I441">
+        <v>3.52257806582182E-3</v>
+      </c>
+      <c r="J441">
+        <v>3.62860155436383E-3</v>
+      </c>
+      <c r="K441">
+        <v>3.7131265839614302E-3</v>
+      </c>
+      <c r="L441">
+        <v>3.5240931775484402E-3</v>
+      </c>
+      <c r="M441">
+        <v>3.6217258566264301E-3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C442">
+        <v>3.7297129898440501E-3</v>
+      </c>
+      <c r="D442">
+        <v>2.4389479449764802E-3</v>
+      </c>
+      <c r="E442">
+        <v>3.7585440833923802E-3</v>
+      </c>
+      <c r="F442">
+        <v>3.7886475923710802E-3</v>
+      </c>
+      <c r="G442">
+        <v>3.7638258060228099E-3</v>
+      </c>
+      <c r="H442">
+        <v>3.7157416746640901E-3</v>
+      </c>
+      <c r="I442">
+        <v>3.7843946369037801E-3</v>
+      </c>
+      <c r="J442">
+        <v>3.78441925526376E-3</v>
+      </c>
+      <c r="K442">
+        <v>3.76949896777172E-3</v>
+      </c>
+      <c r="L442">
+        <v>3.6433104439142802E-3</v>
+      </c>
+      <c r="M442">
+        <v>3.7003477672585398E-3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C443">
+        <v>3.7694988906472999E-3</v>
+      </c>
+      <c r="D443">
+        <v>2.5563021856392898E-3</v>
+      </c>
+      <c r="E443">
+        <v>3.7653880269950201E-3</v>
+      </c>
+      <c r="F443">
+        <v>3.8261757821502298E-3</v>
+      </c>
+      <c r="G443">
+        <v>3.7918083810242701E-3</v>
+      </c>
+      <c r="H443">
+        <v>3.8195361620417499E-3</v>
+      </c>
+      <c r="I443">
+        <v>3.8173456471302502E-3</v>
+      </c>
+      <c r="J443">
+        <v>3.8046685993617601E-3</v>
+      </c>
+      <c r="K443">
+        <v>3.82851230973274E-3</v>
+      </c>
+      <c r="L443">
+        <v>3.76840980902555E-3</v>
+      </c>
+      <c r="M443">
+        <v>3.7678879864757701E-3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B444">
+        <v>8</v>
+      </c>
+      <c r="C444">
+        <v>6.2438956320598699E-3</v>
+      </c>
+      <c r="D444">
+        <v>3.8747619807343401E-3</v>
+      </c>
+      <c r="E444">
+        <v>6.7199326263412502E-3</v>
+      </c>
+      <c r="F444">
+        <v>7.5275094359512603E-3</v>
+      </c>
+      <c r="G444" t="s">
+        <v>18</v>
+      </c>
+      <c r="H444" t="s">
+        <v>18</v>
+      </c>
+      <c r="I444" t="s">
+        <v>18</v>
+      </c>
+      <c r="J444" t="s">
+        <v>18</v>
+      </c>
+      <c r="K444" t="s">
+        <v>18</v>
+      </c>
+      <c r="L444" t="s">
+        <v>18</v>
+      </c>
+      <c r="M444" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C445">
+        <v>7.3704453262118004E-3</v>
+      </c>
+      <c r="D445">
+        <v>4.0688333338612798E-3</v>
+      </c>
+      <c r="E445">
+        <v>7.4123707084216501E-3</v>
+      </c>
+      <c r="F445">
+        <v>7.9741276655892809E-3</v>
+      </c>
+      <c r="G445" t="s">
+        <v>18</v>
+      </c>
+      <c r="H445" t="s">
+        <v>18</v>
+      </c>
+      <c r="I445" t="s">
+        <v>18</v>
+      </c>
+      <c r="J445" t="s">
+        <v>18</v>
+      </c>
+      <c r="K445" t="s">
+        <v>18</v>
+      </c>
+      <c r="L445" t="s">
+        <v>18</v>
+      </c>
+      <c r="M445" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C446">
+        <v>7.7782629256738303E-3</v>
+      </c>
+      <c r="D446">
+        <v>4.6138889048103898E-3</v>
+      </c>
+      <c r="E446">
+        <v>7.6148369704119598E-3</v>
+      </c>
+      <c r="F446">
+        <v>8.6338127777210293E-3</v>
+      </c>
+      <c r="G446" t="s">
+        <v>18</v>
+      </c>
+      <c r="H446" t="s">
+        <v>18</v>
+      </c>
+      <c r="I446" t="s">
+        <v>18</v>
+      </c>
+      <c r="J446" t="s">
+        <v>18</v>
+      </c>
+      <c r="K446" t="s">
+        <v>18</v>
+      </c>
+      <c r="L446" t="s">
+        <v>18</v>
+      </c>
+      <c r="M446" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B447">
+        <v>10</v>
+      </c>
+      <c r="C447">
+        <v>8.3790235216865804E-3</v>
+      </c>
+      <c r="D447">
+        <v>4.4000274209814796E-3</v>
+      </c>
+      <c r="E447">
+        <v>8.3512809380902903E-3</v>
+      </c>
+      <c r="F447">
+        <v>8.3892378025495901E-3</v>
+      </c>
+      <c r="G447">
+        <v>9.0460110348960909E-3</v>
+      </c>
+      <c r="H447" t="s">
+        <v>18</v>
+      </c>
+      <c r="I447" t="s">
+        <v>18</v>
+      </c>
+      <c r="J447" t="s">
+        <v>18</v>
+      </c>
+      <c r="K447" t="s">
+        <v>18</v>
+      </c>
+      <c r="L447" t="s">
+        <v>18</v>
+      </c>
+      <c r="M447" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C448">
+        <v>8.3935089743617294E-3</v>
+      </c>
+      <c r="D448">
+        <v>4.49127278828324E-3</v>
+      </c>
+      <c r="E448">
+        <v>8.4415607542899194E-3</v>
+      </c>
+      <c r="F448">
+        <v>8.4574445006595292E-3</v>
+      </c>
+      <c r="G448">
+        <v>1.08444094414196E-2</v>
+      </c>
+      <c r="H448" t="s">
+        <v>18</v>
+      </c>
+      <c r="I448" t="s">
+        <v>18</v>
+      </c>
+      <c r="J448" t="s">
+        <v>18</v>
+      </c>
+      <c r="K448" t="s">
+        <v>18</v>
+      </c>
+      <c r="L448" t="s">
+        <v>18</v>
+      </c>
+      <c r="M448" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C449">
+        <v>8.4513531643975303E-3</v>
+      </c>
+      <c r="D449">
+        <v>4.8237451401973597E-3</v>
+      </c>
+      <c r="E449">
+        <v>8.5294198892088297E-3</v>
+      </c>
+      <c r="F449">
+        <v>8.4904764086737704E-3</v>
+      </c>
+      <c r="G449" t="s">
+        <v>18</v>
+      </c>
+      <c r="H449" t="s">
+        <v>18</v>
+      </c>
+      <c r="I449" t="s">
+        <v>18</v>
+      </c>
+      <c r="J449" t="s">
+        <v>18</v>
+      </c>
+      <c r="K449" t="s">
+        <v>18</v>
+      </c>
+      <c r="L449" t="s">
+        <v>18</v>
+      </c>
+      <c r="M449" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B450">
+        <v>15</v>
+      </c>
+      <c r="C450">
+        <v>1.1027336946997E-2</v>
+      </c>
+      <c r="D450">
+        <v>7.0036836356658898E-3</v>
+      </c>
+      <c r="E450" t="s">
+        <v>18</v>
+      </c>
+      <c r="F450" t="s">
+        <v>18</v>
+      </c>
+      <c r="G450" t="s">
+        <v>18</v>
+      </c>
+      <c r="H450" t="s">
+        <v>18</v>
+      </c>
+      <c r="I450" t="s">
+        <v>18</v>
+      </c>
+      <c r="J450" t="s">
+        <v>18</v>
+      </c>
+      <c r="K450" t="s">
+        <v>18</v>
+      </c>
+      <c r="L450" t="s">
+        <v>18</v>
+      </c>
+      <c r="M450" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C451">
+        <v>1.15461916223822E-2</v>
+      </c>
+      <c r="D451">
+        <v>8.2352197311106098E-3</v>
+      </c>
+      <c r="E451" t="s">
+        <v>18</v>
+      </c>
+      <c r="F451" t="s">
+        <v>18</v>
+      </c>
+      <c r="G451" t="s">
+        <v>18</v>
+      </c>
+      <c r="H451" t="s">
+        <v>18</v>
+      </c>
+      <c r="I451" t="s">
+        <v>18</v>
+      </c>
+      <c r="J451" t="s">
+        <v>18</v>
+      </c>
+      <c r="K451" t="s">
+        <v>18</v>
+      </c>
+      <c r="L451" t="s">
+        <v>18</v>
+      </c>
+      <c r="M451" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C452" t="s">
+        <v>18</v>
+      </c>
+      <c r="D452">
+        <v>8.5848177169795797E-3</v>
+      </c>
+      <c r="E452" t="s">
+        <v>18</v>
+      </c>
+      <c r="F452" t="s">
+        <v>18</v>
+      </c>
+      <c r="G452" t="s">
+        <v>18</v>
+      </c>
+      <c r="H452" t="s">
+        <v>18</v>
+      </c>
+      <c r="I452" t="s">
+        <v>18</v>
+      </c>
+      <c r="J452" t="s">
+        <v>18</v>
+      </c>
+      <c r="K452" t="s">
+        <v>18</v>
+      </c>
+      <c r="L452" t="s">
+        <v>18</v>
+      </c>
+      <c r="M452" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>21</v>
+      </c>
+      <c r="B453">
+        <v>3</v>
+      </c>
+      <c r="C453" s="1">
+        <v>8.4569867425822497E-4</v>
+      </c>
+      <c r="D453" s="1">
+        <v>7.4099352470810705E-4</v>
+      </c>
+      <c r="E453" s="1">
+        <v>8.45871662938571E-4</v>
+      </c>
+      <c r="F453" s="1">
+        <v>8.3200297801038696E-4</v>
+      </c>
+      <c r="G453" s="1">
+        <v>8.26266444108046E-4</v>
+      </c>
+      <c r="H453" s="1">
+        <v>8.5766439700457598E-4</v>
+      </c>
+      <c r="I453" s="1">
+        <v>8.5624877743344097E-4</v>
+      </c>
+      <c r="J453" s="1">
+        <v>8.4897339463886005E-4</v>
+      </c>
+      <c r="K453" s="1">
+        <v>8.6896299905990298E-4</v>
+      </c>
+      <c r="L453" s="1">
+        <v>9.0013326546197598E-4</v>
+      </c>
+      <c r="M453" s="1">
+        <v>8.7589559733881005E-4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C454" s="1">
+        <v>8.8173051419098303E-4</v>
+      </c>
+      <c r="D454" s="1">
+        <v>8.1768997075134403E-4</v>
+      </c>
+      <c r="E454" s="1">
+        <v>8.4966013339165202E-4</v>
+      </c>
+      <c r="F454" s="1">
+        <v>8.7343734007372896E-4</v>
+      </c>
+      <c r="G454" s="1">
+        <v>8.83758016332998E-4</v>
+      </c>
+      <c r="H454" s="1">
+        <v>8.7110817095696202E-4</v>
+      </c>
+      <c r="I454" s="1">
+        <v>8.8041703302210695E-4</v>
+      </c>
+      <c r="J454" s="1">
+        <v>8.8471296741669998E-4</v>
+      </c>
+      <c r="K454" s="1">
+        <v>8.9295978866691002E-4</v>
+      </c>
+      <c r="L454" s="1">
+        <v>9.0874377694326195E-4</v>
+      </c>
+      <c r="M454" s="1">
+        <v>8.9063157652581105E-4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C455" s="1">
+        <v>8.8377740555914798E-4</v>
+      </c>
+      <c r="D455" s="1">
+        <v>8.5355051278993303E-4</v>
+      </c>
+      <c r="E455" s="1">
+        <v>8.6674307755737199E-4</v>
+      </c>
+      <c r="F455" s="1">
+        <v>8.8451668369820299E-4</v>
+      </c>
+      <c r="G455" s="1">
+        <v>8.9543729182460204E-4</v>
+      </c>
+      <c r="H455" s="1">
+        <v>8.7874586525083702E-4</v>
+      </c>
+      <c r="I455" s="1">
+        <v>8.9388881209274496E-4</v>
+      </c>
+      <c r="J455" s="1">
+        <v>9.0590122379631598E-4</v>
+      </c>
+      <c r="K455" s="1">
+        <v>9.2583296420648497E-4</v>
+      </c>
+      <c r="L455" s="1">
+        <v>9.1430963557722299E-4</v>
+      </c>
+      <c r="M455" s="1">
+        <v>9.1121760893092204E-4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B456">
+        <v>5</v>
+      </c>
+      <c r="C456">
+        <v>5.7470300492133697E-3</v>
+      </c>
+      <c r="D456">
+        <v>5.4087380508738301E-3</v>
+      </c>
+      <c r="E456">
+        <v>5.6468648438738099E-3</v>
+      </c>
+      <c r="F456">
+        <v>5.7014667132119796E-3</v>
+      </c>
+      <c r="G456">
+        <v>5.7186712190186399E-3</v>
+      </c>
+      <c r="H456">
+        <v>5.7642355278806302E-3</v>
+      </c>
+      <c r="I456">
+        <v>6.1889774820916002E-3</v>
+      </c>
+      <c r="J456">
+        <v>5.9968482968425401E-3</v>
+      </c>
+      <c r="K456">
+        <v>6.2180682364169999E-3</v>
+      </c>
+      <c r="L456">
+        <v>6.1004793002460596E-3</v>
+      </c>
+      <c r="M456">
+        <v>6.2658511987199296E-3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C457">
+        <v>5.81355907657485E-3</v>
+      </c>
+      <c r="D457">
+        <v>5.5929011172165897E-3</v>
+      </c>
+      <c r="E457">
+        <v>5.7823833276094798E-3</v>
+      </c>
+      <c r="F457">
+        <v>5.8928012322736201E-3</v>
+      </c>
+      <c r="G457">
+        <v>5.8502668176537197E-3</v>
+      </c>
+      <c r="H457">
+        <v>6.0223688948236199E-3</v>
+      </c>
+      <c r="I457">
+        <v>6.3249603193014699E-3</v>
+      </c>
+      <c r="J457">
+        <v>6.2516449260702003E-3</v>
+      </c>
+      <c r="K457">
+        <v>6.2849366021604097E-3</v>
+      </c>
+      <c r="L457">
+        <v>6.3342900859740398E-3</v>
+      </c>
+      <c r="M457">
+        <v>6.5174696199505298E-3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C458">
+        <v>5.9352706519928498E-3</v>
+      </c>
+      <c r="D458">
+        <v>5.8620314320915598E-3</v>
+      </c>
+      <c r="E458">
+        <v>6.0761189074514301E-3</v>
+      </c>
+      <c r="F458">
+        <v>5.9068392553229898E-3</v>
+      </c>
+      <c r="G458">
+        <v>6.0909613508373702E-3</v>
+      </c>
+      <c r="H458">
+        <v>6.10430779211351E-3</v>
+      </c>
+      <c r="I458">
+        <v>6.5167841973146597E-3</v>
+      </c>
+      <c r="J458">
+        <v>6.5329166399054599E-3</v>
+      </c>
+      <c r="K458">
+        <v>6.4851668751024502E-3</v>
+      </c>
+      <c r="L458">
+        <v>6.3894093443915903E-3</v>
+      </c>
+      <c r="M458">
+        <v>6.6201553210399602E-3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B459">
+        <v>8</v>
+      </c>
+      <c r="C459">
+        <v>6.2638474473379604E-3</v>
+      </c>
+      <c r="D459">
+        <v>5.70100567135488E-3</v>
+      </c>
+      <c r="E459">
+        <v>6.3898657656236302E-3</v>
+      </c>
+      <c r="F459">
+        <v>6.2915696272760101E-3</v>
+      </c>
+      <c r="G459">
+        <v>6.6279440439789396E-3</v>
+      </c>
+      <c r="H459">
+        <v>6.6072776362563696E-3</v>
+      </c>
+      <c r="I459">
+        <v>6.9959913649092001E-3</v>
+      </c>
+      <c r="J459">
+        <v>7.3359850635772899E-3</v>
+      </c>
+      <c r="K459">
+        <v>7.7816710835281796E-3</v>
+      </c>
+      <c r="L459">
+        <v>7.5491226537427103E-3</v>
+      </c>
+      <c r="M459">
+        <v>7.6428794887923E-3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C460">
+        <v>6.5718953939802203E-3</v>
+      </c>
+      <c r="D460">
+        <v>6.1813993126162304E-3</v>
+      </c>
+      <c r="E460">
+        <v>6.65309217495531E-3</v>
+      </c>
+      <c r="F460">
+        <v>6.7011147143314397E-3</v>
+      </c>
+      <c r="G460">
+        <v>6.7181267814866502E-3</v>
+      </c>
+      <c r="H460">
+        <v>6.8832284319259897E-3</v>
+      </c>
+      <c r="I460">
+        <v>7.2010064051211999E-3</v>
+      </c>
+      <c r="J460">
+        <v>7.5895176351240198E-3</v>
+      </c>
+      <c r="K460">
+        <v>7.8928200154591097E-3</v>
+      </c>
+      <c r="L460">
+        <v>7.6926568889238503E-3</v>
+      </c>
+      <c r="M460">
+        <v>7.8622340286037592E-3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C461">
+        <v>6.7055758457078398E-3</v>
+      </c>
+      <c r="D461">
+        <v>6.5878494268154404E-3</v>
+      </c>
+      <c r="E461">
+        <v>7.0327313164003603E-3</v>
+      </c>
+      <c r="F461">
+        <v>6.90048259466273E-3</v>
+      </c>
+      <c r="G461">
+        <v>6.8800031007842299E-3</v>
+      </c>
+      <c r="H461">
+        <v>7.2897516129466697E-3</v>
+      </c>
+      <c r="I461">
+        <v>7.53506153201439E-3</v>
+      </c>
+      <c r="J461">
+        <v>7.6579741245957596E-3</v>
+      </c>
+      <c r="K461">
+        <v>7.9516208114583202E-3</v>
+      </c>
+      <c r="L461">
+        <v>7.9893024928877499E-3</v>
+      </c>
+      <c r="M461">
+        <v>7.9320099712329693E-3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B462">
+        <v>10</v>
+      </c>
+      <c r="C462">
+        <v>8.6710267559727706E-3</v>
+      </c>
+      <c r="D462">
+        <v>7.2016895155711802E-3</v>
+      </c>
+      <c r="E462">
+        <v>8.6374353993829405E-3</v>
+      </c>
+      <c r="F462">
+        <v>8.7599913507287099E-3</v>
+      </c>
+      <c r="G462">
+        <v>8.7930480785823901E-3</v>
+      </c>
+      <c r="H462">
+        <v>8.8823796275721394E-3</v>
+      </c>
+      <c r="I462">
+        <v>9.1484143665459695E-3</v>
+      </c>
+      <c r="J462">
+        <v>9.3995084015729303E-3</v>
+      </c>
+      <c r="K462">
+        <v>9.6742614389073202E-3</v>
+      </c>
+      <c r="L462">
+        <v>9.3321041463625201E-3</v>
+      </c>
+      <c r="M462">
+        <v>9.5952440112172296E-3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C463">
+        <v>8.8441239198877898E-3</v>
+      </c>
+      <c r="D463">
+        <v>8.4518669189896107E-3</v>
+      </c>
+      <c r="E463">
+        <v>8.6913754839388103E-3</v>
+      </c>
+      <c r="F463">
+        <v>8.8321298355179198E-3</v>
+      </c>
+      <c r="G463">
+        <v>8.8760418834059607E-3</v>
+      </c>
+      <c r="H463">
+        <v>9.0496580850372103E-3</v>
+      </c>
+      <c r="I463">
+        <v>9.2079875855108004E-3</v>
+      </c>
+      <c r="J463">
+        <v>9.4828200747910998E-3</v>
+      </c>
+      <c r="K463">
+        <v>9.7789351055415207E-3</v>
+      </c>
+      <c r="L463">
+        <v>9.6356594977669591E-3</v>
+      </c>
+      <c r="M463">
+        <v>9.6643574900265507E-3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C464">
+        <v>8.8787797232230594E-3</v>
+      </c>
+      <c r="D464">
+        <v>9.1767088698027997E-3</v>
+      </c>
+      <c r="E464">
+        <v>9.0483537920238999E-3</v>
+      </c>
+      <c r="F464">
+        <v>8.95562474092443E-3</v>
+      </c>
+      <c r="G464">
+        <v>9.2497462691581E-3</v>
+      </c>
+      <c r="H464">
+        <v>9.2054867093890602E-3</v>
+      </c>
+      <c r="I464">
+        <v>9.4115088680008004E-3</v>
+      </c>
+      <c r="J464">
+        <v>9.5635226196207901E-3</v>
+      </c>
+      <c r="K464">
+        <v>9.8406299816821592E-3</v>
+      </c>
+      <c r="L464">
+        <v>9.6660657880291798E-3</v>
+      </c>
+      <c r="M464">
+        <v>9.7420770971859295E-3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B465">
+        <v>15</v>
+      </c>
+      <c r="C465">
+        <v>9.6573499427894394E-3</v>
+      </c>
+      <c r="D465">
+        <v>1.7713300909845499E-2</v>
+      </c>
+      <c r="E465">
+        <v>1.1147549853456E-2</v>
+      </c>
+      <c r="F465">
+        <v>9.8209301757034295E-3</v>
+      </c>
+      <c r="G465">
+        <v>1.07746889930089E-2</v>
+      </c>
+      <c r="H465">
+        <v>1.0010202936010701E-2</v>
+      </c>
+      <c r="I465">
+        <v>1.24686149511605E-2</v>
+      </c>
+      <c r="J465">
+        <v>9.9080410334721793E-3</v>
+      </c>
+      <c r="K465">
+        <v>1.09157349905017E-2</v>
+      </c>
+      <c r="L465">
+        <v>1.5270635213190199E-2</v>
+      </c>
+      <c r="M465">
+        <v>1.54308878653979E-2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C466">
+        <v>9.87103012840174E-3</v>
+      </c>
+      <c r="D466">
+        <v>1.93311665091466E-2</v>
+      </c>
+      <c r="E466">
+        <v>1.28915208376583E-2</v>
+      </c>
+      <c r="F466">
+        <v>1.21507149497685E-2</v>
+      </c>
+      <c r="G466">
+        <v>1.28036913464531E-2</v>
+      </c>
+      <c r="H466">
+        <v>1.6681399897724901E-2</v>
+      </c>
+      <c r="I466">
+        <v>1.4569931640178399E-2</v>
+      </c>
+      <c r="J466">
+        <v>1.3088769022490499E-2</v>
+      </c>
+      <c r="K466">
+        <v>1.18401952568546E-2</v>
+      </c>
+      <c r="L466">
+        <v>1.5823831244261601E-2</v>
+      </c>
+      <c r="M466">
+        <v>1.67954923152327E-2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C467">
+        <v>1.4553791934500701E-2</v>
+      </c>
+      <c r="D467">
+        <v>1.99077634728222E-2</v>
+      </c>
+      <c r="E467">
+        <v>1.40053272155512E-2</v>
+      </c>
+      <c r="F467">
+        <v>1.6525083187393999E-2</v>
+      </c>
+      <c r="G467">
+        <v>1.6552312664739201E-2</v>
+      </c>
+      <c r="H467">
+        <v>1.8706499367922898E-2</v>
+      </c>
+      <c r="I467">
+        <v>1.6488693010811802E-2</v>
+      </c>
+      <c r="J467">
+        <v>1.9382024750899202E-2</v>
+      </c>
+      <c r="K467">
+        <v>1.55467874508914E-2</v>
+      </c>
+      <c r="L467">
+        <v>1.9322531129064301E-2</v>
+      </c>
+      <c r="M467">
+        <v>1.8271860631656402E-2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C468">
+        <v>15</v>
+      </c>
+      <c r="D468">
+        <v>46</v>
+      </c>
+      <c r="E468">
+        <v>6</v>
+      </c>
+      <c r="F468">
+        <v>5</v>
+      </c>
+      <c r="G468">
+        <v>5</v>
+      </c>
+      <c r="H468">
+        <v>5</v>
+      </c>
+      <c r="I468">
+        <v>2</v>
+      </c>
+      <c r="J468">
+        <v>4</v>
+      </c>
+      <c r="K468">
+        <v>0</v>
+      </c>
+      <c r="L468">
+        <v>0</v>
+      </c>
+      <c r="M468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>0</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1</v>
+      </c>
+      <c r="C470" t="s">
+        <v>4</v>
+      </c>
+      <c r="D470" t="s">
+        <v>24</v>
+      </c>
+      <c r="E470" t="s">
+        <v>5</v>
+      </c>
+      <c r="F470" t="s">
+        <v>7</v>
+      </c>
+      <c r="G470" t="s">
+        <v>8</v>
+      </c>
+      <c r="H470" t="s">
+        <v>9</v>
+      </c>
+      <c r="I470" t="s">
+        <v>10</v>
+      </c>
+      <c r="J470" t="s">
+        <v>11</v>
+      </c>
+      <c r="K470" t="s">
+        <v>12</v>
+      </c>
+      <c r="L470" t="s">
+        <v>13</v>
+      </c>
+      <c r="M470" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>15</v>
+      </c>
+      <c r="B471">
+        <v>3</v>
+      </c>
+      <c r="C471">
+        <v>2.80881017004532E-2</v>
+      </c>
+      <c r="D471">
+        <v>2.6430604248280701E-2</v>
+      </c>
+      <c r="E471">
+        <v>2.7832024809830401E-2</v>
+      </c>
+      <c r="F471">
+        <v>2.7703232710482899E-2</v>
+      </c>
+      <c r="G471">
+        <v>2.78629444588319E-2</v>
+      </c>
+      <c r="H471">
+        <v>2.7921494269500399E-2</v>
+      </c>
+      <c r="I471">
+        <v>2.7988148223397701E-2</v>
+      </c>
+      <c r="J471">
+        <v>2.8258517565012801E-2</v>
+      </c>
+      <c r="K471">
+        <v>2.7770425481310399E-2</v>
+      </c>
+      <c r="L471">
+        <v>2.7840334450082899E-2</v>
+      </c>
+      <c r="M471">
+        <v>2.7813429833875001E-2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C472">
+        <v>2.83622981610883E-2</v>
+      </c>
+      <c r="D472">
+        <v>2.7871466291636799E-2</v>
+      </c>
+      <c r="E472">
+        <v>2.8084040533746898E-2</v>
+      </c>
+      <c r="F472">
+        <v>2.7954313440565402E-2</v>
+      </c>
+      <c r="G472">
+        <v>2.8236483238772501E-2</v>
+      </c>
+      <c r="H472">
+        <v>2.81548461964739E-2</v>
+      </c>
+      <c r="I472">
+        <v>2.8326144307993101E-2</v>
+      </c>
+      <c r="J472">
+        <v>2.8599746569876301E-2</v>
+      </c>
+      <c r="K472">
+        <v>2.78328313500933E-2</v>
+      </c>
+      <c r="L472">
+        <v>3.02531482604428E-2</v>
+      </c>
+      <c r="M472">
+        <v>2.8395240004298002E-2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C473">
+        <v>3.24314848916126E-2</v>
+      </c>
+      <c r="D473">
+        <v>2.9599609141613199E-2</v>
+      </c>
+      <c r="E473">
+        <v>2.8233003335771702E-2</v>
+      </c>
+      <c r="F473">
+        <v>2.88122506780066E-2</v>
+      </c>
+      <c r="G473">
+        <v>3.0996421591599099E-2</v>
+      </c>
+      <c r="H473">
+        <v>2.8899165799384601E-2</v>
+      </c>
+      <c r="I473">
+        <v>2.85496623649645E-2</v>
+      </c>
+      <c r="J473">
+        <v>2.8813024740859599E-2</v>
+      </c>
+      <c r="K473">
+        <v>3.2669842841541202E-2</v>
+      </c>
+      <c r="L473">
+        <v>3.1699217001208799E-2</v>
+      </c>
+      <c r="M473">
+        <v>2.9618395501516299E-2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B474">
+        <v>5</v>
+      </c>
+      <c r="C474">
+        <v>6.6183744216218102E-2</v>
+      </c>
+      <c r="D474">
+        <v>7.1449032707871604E-2</v>
+      </c>
+      <c r="E474">
+        <v>6.6231588226585994E-2</v>
+      </c>
+      <c r="F474">
+        <v>6.5916363367397895E-2</v>
+      </c>
+      <c r="G474">
+        <v>6.61312801957019E-2</v>
+      </c>
+      <c r="H474">
+        <v>6.6206655533026904E-2</v>
+      </c>
+      <c r="I474">
+        <v>6.6004137677818195E-2</v>
+      </c>
+      <c r="J474">
+        <v>6.6252536605529905E-2</v>
+      </c>
+      <c r="K474">
+        <v>6.5741008958173294E-2</v>
+      </c>
+      <c r="L474">
+        <v>6.6133814313569905E-2</v>
+      </c>
+      <c r="M474">
+        <v>6.6065522635340504E-2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C475">
+        <v>6.6309064581150004E-2</v>
+      </c>
+      <c r="D475">
+        <v>7.2075075618430795E-2</v>
+      </c>
+      <c r="E475">
+        <v>6.6683207036702899E-2</v>
+      </c>
+      <c r="F475">
+        <v>6.6491732841125098E-2</v>
+      </c>
+      <c r="G475">
+        <v>6.6415673560954305E-2</v>
+      </c>
+      <c r="H475">
+        <v>6.6395944740779395E-2</v>
+      </c>
+      <c r="I475">
+        <v>6.6303043508255499E-2</v>
+      </c>
+      <c r="J475">
+        <v>6.6451135664675004E-2</v>
+      </c>
+      <c r="K475">
+        <v>6.6107517336926006E-2</v>
+      </c>
+      <c r="L475">
+        <v>6.6549020667086997E-2</v>
+      </c>
+      <c r="M475">
+        <v>6.62440141191422E-2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C476">
+        <v>6.6689952962235496E-2</v>
+      </c>
+      <c r="D476">
+        <v>7.3555550420177598E-2</v>
+      </c>
+      <c r="E476">
+        <v>6.7189641488205998E-2</v>
+      </c>
+      <c r="F476">
+        <v>6.7012754199284694E-2</v>
+      </c>
+      <c r="G476">
+        <v>6.6697278878619301E-2</v>
+      </c>
+      <c r="H476">
+        <v>6.6839832091413101E-2</v>
+      </c>
+      <c r="I476">
+        <v>6.7005969024411402E-2</v>
+      </c>
+      <c r="J476">
+        <v>6.8395866942474501E-2</v>
+      </c>
+      <c r="K476">
+        <v>6.7360659275598395E-2</v>
+      </c>
+      <c r="L476">
+        <v>6.7266786223091402E-2</v>
+      </c>
+      <c r="M476">
+        <v>6.6416729876606503E-2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B477">
+        <v>8</v>
+      </c>
+      <c r="C477">
+        <v>0.13322652648310501</v>
+      </c>
+      <c r="D477">
+        <v>0.14427067905042801</v>
+      </c>
+      <c r="E477">
+        <v>0.13285653546714499</v>
+      </c>
+      <c r="F477">
+        <v>0.13229612628819101</v>
+      </c>
+      <c r="G477">
+        <v>0.13357645252969799</v>
+      </c>
+      <c r="H477">
+        <v>0.133363878883513</v>
+      </c>
+      <c r="I477">
+        <v>0.13120496423528399</v>
+      </c>
+      <c r="J477">
+        <v>0.132342273181044</v>
+      </c>
+      <c r="K477">
+        <v>0.13507868131217299</v>
+      </c>
+      <c r="L477">
+        <v>0.13467509042187201</v>
+      </c>
+      <c r="M477">
+        <v>0.13689587896173999</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C478">
+        <v>0.13701673049994101</v>
+      </c>
+      <c r="D478">
+        <v>0.14716589662461199</v>
+      </c>
+      <c r="E478">
+        <v>0.137341916748079</v>
+      </c>
+      <c r="F478">
+        <v>0.14063665501527101</v>
+      </c>
+      <c r="G478">
+        <v>0.13625169048480301</v>
+      </c>
+      <c r="H478">
+        <v>0.13990792680724501</v>
+      </c>
+      <c r="I478">
+        <v>0.135310493307435</v>
+      </c>
+      <c r="J478">
+        <v>0.13531432764981199</v>
+      </c>
+      <c r="K478">
+        <v>0.13690431075978701</v>
+      </c>
+      <c r="L478">
+        <v>0.13733053524066499</v>
+      </c>
+      <c r="M478">
+        <v>0.14251846486504399</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C479">
+        <v>0.14031216127457699</v>
+      </c>
+      <c r="D479">
+        <v>0.154047999479516</v>
+      </c>
+      <c r="E479">
+        <v>0.13826807354356599</v>
+      </c>
+      <c r="F479">
+        <v>0.14247249465186701</v>
+      </c>
+      <c r="G479">
+        <v>0.13713651917765499</v>
+      </c>
+      <c r="H479">
+        <v>0.14036545462539601</v>
+      </c>
+      <c r="I479">
+        <v>0.13838759996949601</v>
+      </c>
+      <c r="J479">
+        <v>0.13770436090348001</v>
+      </c>
+      <c r="K479">
+        <v>0.14023384157649799</v>
+      </c>
+      <c r="L479">
+        <v>0.140775135426953</v>
+      </c>
+      <c r="M479">
+        <v>0.14943243883318599</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B480">
+        <v>10</v>
+      </c>
+      <c r="C480">
+        <v>0.14250074946428801</v>
+      </c>
+      <c r="D480">
+        <v>0.14936045054101799</v>
+      </c>
+      <c r="E480">
+        <v>0.140375521404286</v>
+      </c>
+      <c r="F480">
+        <v>0.144039743185573</v>
+      </c>
+      <c r="G480">
+        <v>0.139571149350491</v>
+      </c>
+      <c r="H480">
+        <v>0.14224727873491999</v>
+      </c>
+      <c r="I480">
+        <v>0.14128193571581299</v>
+      </c>
+      <c r="J480">
+        <v>0.142498976789043</v>
+      </c>
+      <c r="K480">
+        <v>0.14120440389015201</v>
+      </c>
+      <c r="L480">
+        <v>0.13960231606853901</v>
+      </c>
+      <c r="M480">
+        <v>0.142013973201704</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C481">
+        <v>0.14586648020638199</v>
+      </c>
+      <c r="D481">
+        <v>0.16005074444426201</v>
+      </c>
+      <c r="E481">
+        <v>0.14444767042633799</v>
+      </c>
+      <c r="F481">
+        <v>0.145471440558368</v>
+      </c>
+      <c r="G481">
+        <v>0.143614159727493</v>
+      </c>
+      <c r="H481">
+        <v>0.14557515851630201</v>
+      </c>
+      <c r="I481">
+        <v>0.144087047526643</v>
+      </c>
+      <c r="J481">
+        <v>0.14313529364152799</v>
+      </c>
+      <c r="K481">
+        <v>0.14428630458498101</v>
+      </c>
+      <c r="L481">
+        <v>0.14505169098895199</v>
+      </c>
+      <c r="M481">
+        <v>0.143787799001625</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C482">
+        <v>0.14731778824862099</v>
+      </c>
+      <c r="D482">
+        <v>0.17558147084423001</v>
+      </c>
+      <c r="E482">
+        <v>0.14468445597747301</v>
+      </c>
+      <c r="F482">
+        <v>0.14800430477701701</v>
+      </c>
+      <c r="G482">
+        <v>0.14563459692042099</v>
+      </c>
+      <c r="H482">
+        <v>0.14743208196449301</v>
+      </c>
+      <c r="I482">
+        <v>0.14690747875516699</v>
+      </c>
+      <c r="J482">
+        <v>0.144346970842579</v>
+      </c>
+      <c r="K482">
+        <v>0.14924721355541801</v>
+      </c>
+      <c r="L482">
+        <v>0.145291189898891</v>
+      </c>
+      <c r="M482">
+        <v>0.14647566869144199</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B483">
+        <v>15</v>
+      </c>
+      <c r="C483">
+        <v>0.170105272360457</v>
+      </c>
+      <c r="D483">
+        <v>0.18177536548753301</v>
+      </c>
+      <c r="E483">
+        <v>0.176916480440517</v>
+      </c>
+      <c r="F483">
+        <v>0.18187609214968101</v>
+      </c>
+      <c r="G483">
+        <v>0.17887395938324899</v>
+      </c>
+      <c r="H483">
+        <v>0.18205403091414099</v>
+      </c>
+      <c r="I483">
+        <v>0.181242646991564</v>
+      </c>
+      <c r="J483">
+        <v>0.17584797981106001</v>
+      </c>
+      <c r="K483">
+        <v>0.17757696334336001</v>
+      </c>
+      <c r="L483">
+        <v>0.180057186986403</v>
+      </c>
+      <c r="M483">
+        <v>0.16770177736641501</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C484">
+        <v>0.182536104912389</v>
+      </c>
+      <c r="D484">
+        <v>0.18692814178259601</v>
+      </c>
+      <c r="E484">
+        <v>0.18519814364505199</v>
+      </c>
+      <c r="F484">
+        <v>0.18313369287772999</v>
+      </c>
+      <c r="G484">
+        <v>0.18343591742513299</v>
+      </c>
+      <c r="H484">
+        <v>0.18348715281509401</v>
+      </c>
+      <c r="I484">
+        <v>0.18584779355211001</v>
+      </c>
+      <c r="J484">
+        <v>0.18012144994825</v>
+      </c>
+      <c r="K484">
+        <v>0.185662051024514</v>
+      </c>
+      <c r="L484">
+        <v>0.18495380423542901</v>
+      </c>
+      <c r="M484">
+        <v>0.178933526253653</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C485">
+        <v>0.18723999926064699</v>
+      </c>
+      <c r="D485">
+        <v>0.192499921126948</v>
+      </c>
+      <c r="E485">
+        <v>0.18759944105339199</v>
+      </c>
+      <c r="F485">
+        <v>0.18490659579090701</v>
+      </c>
+      <c r="G485">
+        <v>0.188554719011824</v>
+      </c>
+      <c r="H485">
+        <v>0.18569989669682199</v>
+      </c>
+      <c r="I485">
+        <v>0.189907959711658</v>
+      </c>
+      <c r="J485">
+        <v>0.18910308846492099</v>
+      </c>
+      <c r="K485">
+        <v>0.18642946057741899</v>
+      </c>
+      <c r="L485">
+        <v>0.18631190485694801</v>
+      </c>
+      <c r="M485">
+        <v>0.18245601729892899</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>16</v>
+      </c>
+      <c r="B486">
+        <v>3</v>
+      </c>
+      <c r="C486">
+        <v>8.0052583346813506</v>
+      </c>
+      <c r="D486">
+        <v>8.0069532296435302</v>
+      </c>
+      <c r="E486">
+        <v>8.0038514838842296</v>
+      </c>
+      <c r="F486">
+        <v>8.0037744347594302</v>
+      </c>
+      <c r="G486">
+        <v>8.0036057093213095</v>
+      </c>
+      <c r="H486">
+        <v>2.72453809078913E-2</v>
+      </c>
+      <c r="I486">
+        <v>8.0049720211075996</v>
+      </c>
+      <c r="J486">
+        <v>8.0048976074433504</v>
+      </c>
+      <c r="K486">
+        <v>8.0060592773242991</v>
+      </c>
+      <c r="L486">
+        <v>2.6706128009579201E-2</v>
+      </c>
+      <c r="M486">
+        <v>8.0051552885754003</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C487">
+        <v>8.0062307732683298</v>
+      </c>
+      <c r="D487">
+        <v>8.0144035240072196</v>
+      </c>
+      <c r="E487">
+        <v>8.0060093551224707</v>
+      </c>
+      <c r="F487">
+        <v>8.0061144375439905</v>
+      </c>
+      <c r="G487">
+        <v>8.0065466663724898</v>
+      </c>
+      <c r="H487">
+        <v>8.0034968691772193</v>
+      </c>
+      <c r="I487">
+        <v>8.0056348811007094</v>
+      </c>
+      <c r="J487">
+        <v>8.0053050055066706</v>
+      </c>
+      <c r="K487">
+        <v>8.0064934280744406</v>
+      </c>
+      <c r="L487">
+        <v>8.0054243696908305</v>
+      </c>
+      <c r="M487">
+        <v>8.0058184713240905</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C488">
+        <v>8.0071413990617799</v>
+      </c>
+      <c r="D488">
+        <v>8.02053664200165</v>
+      </c>
+      <c r="E488">
+        <v>8.0071291732381908</v>
+      </c>
+      <c r="F488">
+        <v>8.00833622642687</v>
+      </c>
+      <c r="G488">
+        <v>8.0077226716984597</v>
+      </c>
+      <c r="H488">
+        <v>8.0058846842021207</v>
+      </c>
+      <c r="I488">
+        <v>8.0074921713132792</v>
+      </c>
+      <c r="J488">
+        <v>8.0074170866044092</v>
+      </c>
+      <c r="K488">
+        <v>8.0084947463625102</v>
+      </c>
+      <c r="L488">
+        <v>8.0065863667487207</v>
+      </c>
+      <c r="M488">
+        <v>8.0072903326119302</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B489">
+        <v>5</v>
+      </c>
+      <c r="C489">
+        <v>11.5254907195417</v>
+      </c>
+      <c r="D489">
+        <v>11.518115229685501</v>
+      </c>
+      <c r="E489">
+        <v>1.62282065703371</v>
+      </c>
+      <c r="F489">
+        <v>11.5265497699557</v>
+      </c>
+      <c r="G489">
+        <v>7.5585837896907093E-2</v>
+      </c>
+      <c r="H489">
+        <v>7.0592899862458203E-2</v>
+      </c>
+      <c r="I489">
+        <v>11.526628518993499</v>
+      </c>
+      <c r="J489">
+        <v>0.40359462797066897</v>
+      </c>
+      <c r="K489">
+        <v>11.5245431658116</v>
+      </c>
+      <c r="L489">
+        <v>11.527221560874199</v>
+      </c>
+      <c r="M489">
+        <v>11.5265811977629</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C490">
+        <v>11.5286559070845</v>
+      </c>
+      <c r="D490">
+        <v>11.5196556129249</v>
+      </c>
+      <c r="E490">
+        <v>11.527574503422599</v>
+      </c>
+      <c r="F490">
+        <v>11.528470242299999</v>
+      </c>
+      <c r="G490">
+        <v>11.525502906798</v>
+      </c>
+      <c r="H490">
+        <v>11.5293684101994</v>
+      </c>
+      <c r="I490">
+        <v>11.529185733727299</v>
+      </c>
+      <c r="J490">
+        <v>11.526346219915499</v>
+      </c>
+      <c r="K490">
+        <v>11.528121626219001</v>
+      </c>
+      <c r="L490">
+        <v>11.528224576820399</v>
+      </c>
+      <c r="M490">
+        <v>11.5279077947947</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C491">
+        <v>11.5311667421949</v>
+      </c>
+      <c r="D491">
+        <v>11.5209155860574</v>
+      </c>
+      <c r="E491">
+        <v>11.530028908534501</v>
+      </c>
+      <c r="F491">
+        <v>11.5308978017177</v>
+      </c>
+      <c r="G491">
+        <v>11.5319017022358</v>
+      </c>
+      <c r="H491">
+        <v>11.5306312035561</v>
+      </c>
+      <c r="I491">
+        <v>11.531489630820399</v>
+      </c>
+      <c r="J491">
+        <v>11.528468699815299</v>
+      </c>
+      <c r="K491">
+        <v>11.534206954940499</v>
+      </c>
+      <c r="L491">
+        <v>11.528875772567201</v>
+      </c>
+      <c r="M491">
+        <v>11.528425310511</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B492">
+        <v>8</v>
+      </c>
+      <c r="C492">
+        <v>11.5934953892691</v>
+      </c>
+      <c r="D492">
+        <v>11.571851413527201</v>
+      </c>
+      <c r="E492">
+        <v>11.590497992160801</v>
+      </c>
+      <c r="F492">
+        <v>11.5926699325013</v>
+      </c>
+      <c r="G492">
+        <v>11.589713607892699</v>
+      </c>
+      <c r="H492">
+        <v>0.177787629525091</v>
+      </c>
+      <c r="I492">
+        <v>11.591413860463</v>
+      </c>
+      <c r="J492">
+        <v>11.5912654442812</v>
+      </c>
+      <c r="K492">
+        <v>11.593287874438801</v>
+      </c>
+      <c r="L492">
+        <v>11.589594282415501</v>
+      </c>
+      <c r="M492">
+        <v>11.591716721856599</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C493">
+        <v>11.593751053248701</v>
+      </c>
+      <c r="D493">
+        <v>11.576875088192599</v>
+      </c>
+      <c r="E493">
+        <v>11.593836505301899</v>
+      </c>
+      <c r="F493">
+        <v>11.594716298090599</v>
+      </c>
+      <c r="G493">
+        <v>11.5930530514065</v>
+      </c>
+      <c r="H493">
+        <v>11.592885824600801</v>
+      </c>
+      <c r="I493">
+        <v>11.5951496896105</v>
+      </c>
+      <c r="J493">
+        <v>11.5927878309808</v>
+      </c>
+      <c r="K493">
+        <v>11.5948389256169</v>
+      </c>
+      <c r="L493">
+        <v>11.593045509581</v>
+      </c>
+      <c r="M493">
+        <v>11.5942955437351</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C494">
+        <v>11.5946748785117</v>
+      </c>
+      <c r="D494">
+        <v>11.586967228779701</v>
+      </c>
+      <c r="E494">
+        <v>11.597849207255701</v>
+      </c>
+      <c r="F494">
+        <v>11.5978835387434</v>
+      </c>
+      <c r="G494">
+        <v>11.5952961766711</v>
+      </c>
+      <c r="H494">
+        <v>11.5965016034118</v>
+      </c>
+      <c r="I494">
+        <v>11.5973036106311</v>
+      </c>
+      <c r="J494">
+        <v>11.5962604149634</v>
+      </c>
+      <c r="K494">
+        <v>11.598030091016501</v>
+      </c>
+      <c r="L494">
+        <v>11.5947748026041</v>
+      </c>
+      <c r="M494">
+        <v>11.5969513923348</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B495">
+        <v>10</v>
+      </c>
+      <c r="C495">
+        <v>14.1073987738464</v>
+      </c>
+      <c r="D495">
+        <v>14.0940467937506</v>
+      </c>
+      <c r="E495">
+        <v>14.106825570628899</v>
+      </c>
+      <c r="F495">
+        <v>14.105919599534101</v>
+      </c>
+      <c r="G495">
+        <v>0.19558595002250101</v>
+      </c>
+      <c r="H495">
+        <v>0.19897942282130399</v>
+      </c>
+      <c r="I495">
+        <v>14.1066784426921</v>
+      </c>
+      <c r="J495">
+        <v>0.198196368431555</v>
+      </c>
+      <c r="K495">
+        <v>14.108538477592001</v>
+      </c>
+      <c r="L495">
+        <v>14.1064777885447</v>
+      </c>
+      <c r="M495">
+        <v>14.106473143337899</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C496">
+        <v>14.1081043944094</v>
+      </c>
+      <c r="D496">
+        <v>14.0980878421769</v>
+      </c>
+      <c r="E496">
+        <v>14.1079678375932</v>
+      </c>
+      <c r="F496">
+        <v>14.109293134446499</v>
+      </c>
+      <c r="G496">
+        <v>14.107915634891</v>
+      </c>
+      <c r="H496">
+        <v>14.1089847490486</v>
+      </c>
+      <c r="I496">
+        <v>14.1087034664298</v>
+      </c>
+      <c r="J496">
+        <v>14.1103505953108</v>
+      </c>
+      <c r="K496">
+        <v>14.1091565110383</v>
+      </c>
+      <c r="L496">
+        <v>14.1073582595766</v>
+      </c>
+      <c r="M496">
+        <v>14.1084223608056</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C497">
+        <v>14.1123645224489</v>
+      </c>
+      <c r="D497">
+        <v>14.104929086977799</v>
+      </c>
+      <c r="E497">
+        <v>14.1110677388355</v>
+      </c>
+      <c r="F497">
+        <v>14.114799631239</v>
+      </c>
+      <c r="G497">
+        <v>14.1104215571628</v>
+      </c>
+      <c r="H497">
+        <v>14.112014995759299</v>
+      </c>
+      <c r="I497">
+        <v>14.110101502410499</v>
+      </c>
+      <c r="J497">
+        <v>14.110700581518101</v>
+      </c>
+      <c r="K497">
+        <v>14.1120141453702</v>
+      </c>
+      <c r="L497">
+        <v>14.109006732579401</v>
+      </c>
+      <c r="M497">
+        <v>14.1099716433413</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B498">
+        <v>15</v>
+      </c>
+      <c r="C498">
+        <v>0.348194906303115</v>
+      </c>
+      <c r="D498">
+        <v>14.205762848307399</v>
+      </c>
+      <c r="E498">
+        <v>0.31829870161826002</v>
+      </c>
+      <c r="F498">
+        <v>0.34727998529592002</v>
+      </c>
+      <c r="G498">
+        <v>0.33217716605396902</v>
+      </c>
+      <c r="H498">
+        <v>0.32605172560455198</v>
+      </c>
+      <c r="I498">
+        <v>0.33393531553189498</v>
+      </c>
+      <c r="J498">
+        <v>0.35410629482517197</v>
+      </c>
+      <c r="K498">
+        <v>0.35040560306441998</v>
+      </c>
+      <c r="L498">
+        <v>0.34610020611152897</v>
+      </c>
+      <c r="M498">
+        <v>0.32363515240055302</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C499">
+        <v>0.37308142304901298</v>
+      </c>
+      <c r="D499">
+        <v>14.2325804885356</v>
+      </c>
+      <c r="E499">
+        <v>0.32639761032081699</v>
+      </c>
+      <c r="F499">
+        <v>0.35799440934558902</v>
+      </c>
+      <c r="G499">
+        <v>0.36693199777362401</v>
+      </c>
+      <c r="H499">
+        <v>0.33050729035575499</v>
+      </c>
+      <c r="I499">
+        <v>14.2301526491781</v>
+      </c>
+      <c r="J499">
+        <v>14.2293691061597</v>
+      </c>
+      <c r="K499">
+        <v>0.376110543865457</v>
+      </c>
+      <c r="L499">
+        <v>0.41706150893536198</v>
+      </c>
+      <c r="M499">
+        <v>0.35837742829590202</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C500">
+        <v>14.2207202862788</v>
+      </c>
+      <c r="D500">
+        <v>14.3040209351678</v>
+      </c>
+      <c r="E500">
+        <v>14.24275441658</v>
+      </c>
+      <c r="F500">
+        <v>14.2862539903212</v>
+      </c>
+      <c r="G500">
+        <v>14.243416812022</v>
+      </c>
+      <c r="H500">
+        <v>14.282950757575399</v>
+      </c>
+      <c r="I500">
+        <v>14.276781110734399</v>
+      </c>
+      <c r="J500">
+        <v>14.266560883188401</v>
+      </c>
+      <c r="K500">
+        <v>14.2337250318313</v>
+      </c>
+      <c r="L500">
+        <v>14.2908595530558</v>
+      </c>
+      <c r="M500">
+        <v>14.2471822924626</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>17</v>
+      </c>
+      <c r="B501">
+        <v>3</v>
+      </c>
+      <c r="C501">
+        <v>4.6717859940279702E-2</v>
+      </c>
+      <c r="D501">
+        <v>8.9478393631280198E-2</v>
+      </c>
+      <c r="E501">
+        <v>5.9729825362562702E-2</v>
+      </c>
+      <c r="F501">
+        <v>7.2564847564172599E-2</v>
+      </c>
+      <c r="G501">
+        <v>7.8903848809964705E-2</v>
+      </c>
+      <c r="H501">
+        <v>9.2251984269367801E-2</v>
+      </c>
+      <c r="I501">
+        <v>9.9919990667625899E-2</v>
+      </c>
+      <c r="J501">
+        <v>0.116742398795317</v>
+      </c>
+      <c r="K501">
+        <v>0.12581007439586001</v>
+      </c>
+      <c r="L501">
+        <v>0.14421877813214101</v>
+      </c>
+      <c r="M501">
+        <v>0.21624789866209801</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C502">
+        <v>5.4322687142999801E-2</v>
+      </c>
+      <c r="D502">
+        <v>9.6577884939162098E-2</v>
+      </c>
+      <c r="E502">
+        <v>6.20316401559836E-2</v>
+      </c>
+      <c r="F502">
+        <v>7.5136851131779397E-2</v>
+      </c>
+      <c r="G502">
+        <v>8.7911786037977196E-2</v>
+      </c>
+      <c r="H502">
+        <v>9.6366042714218794E-2</v>
+      </c>
+      <c r="I502">
+        <v>0.101828019012302</v>
+      </c>
+      <c r="J502">
+        <v>0.121655999115451</v>
+      </c>
+      <c r="K502">
+        <v>0.13085489664559699</v>
+      </c>
+      <c r="L502">
+        <v>0.16495397323045899</v>
+      </c>
+      <c r="M502">
+        <v>0.239588943819349</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C503">
+        <v>6.9742642287415904E-2</v>
+      </c>
+      <c r="D503">
+        <v>0.10127038532466399</v>
+      </c>
+      <c r="E503">
+        <v>6.8149704816443196E-2</v>
+      </c>
+      <c r="F503">
+        <v>8.3470363466896305E-2</v>
+      </c>
+      <c r="G503">
+        <v>9.3491524642107096E-2</v>
+      </c>
+      <c r="H503">
+        <v>9.9624207646263702E-2</v>
+      </c>
+      <c r="I503">
+        <v>0.110068012238781</v>
+      </c>
+      <c r="J503">
+        <v>0.13920334481763799</v>
+      </c>
+      <c r="K503">
+        <v>0.13796420751322</v>
+      </c>
+      <c r="L503">
+        <v>0.19639648980416299</v>
+      </c>
+      <c r="M503" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B504">
+        <v>5</v>
+      </c>
+      <c r="C504">
+        <v>8.0130471199168996E-2</v>
+      </c>
+      <c r="D504">
+        <v>0.10137825044292401</v>
+      </c>
+      <c r="E504">
+        <v>8.2429303424044503E-2</v>
+      </c>
+      <c r="F504">
+        <v>9.0308117013215394E-2</v>
+      </c>
+      <c r="G504">
+        <v>9.2709072299165099E-2</v>
+      </c>
+      <c r="H504">
+        <v>0.102527656959047</v>
+      </c>
+      <c r="I504">
+        <v>0.104441592348891</v>
+      </c>
+      <c r="J504">
+        <v>0.112248538792285</v>
+      </c>
+      <c r="K504">
+        <v>0.11885034653691599</v>
+      </c>
+      <c r="L504">
+        <v>0.147947930694529</v>
+      </c>
+      <c r="M504">
+        <v>0.20822604934563099</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C505">
+        <v>8.2379827082854101E-2</v>
+      </c>
+      <c r="D505">
+        <v>0.103126754926488</v>
+      </c>
+      <c r="E505">
+        <v>8.5175378289106596E-2</v>
+      </c>
+      <c r="F505">
+        <v>9.6358524959904795E-2</v>
+      </c>
+      <c r="G505">
+        <v>9.6013090332648807E-2</v>
+      </c>
+      <c r="H505">
+        <v>0.102845695227131</v>
+      </c>
+      <c r="I505">
+        <v>0.111907889168603</v>
+      </c>
+      <c r="J505">
+        <v>0.119138823469617</v>
+      </c>
+      <c r="K505">
+        <v>0.123543866196416</v>
+      </c>
+      <c r="L505">
+        <v>0.15525545385210901</v>
+      </c>
+      <c r="M505">
+        <v>0.22154706989773101</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C506">
+        <v>8.6833346618580207E-2</v>
+      </c>
+      <c r="D506">
+        <v>0.106010850648411</v>
+      </c>
+      <c r="E506">
+        <v>9.2146934364940203E-2</v>
+      </c>
+      <c r="F506">
+        <v>9.8610847279768599E-2</v>
+      </c>
+      <c r="G506">
+        <v>9.9699933755818898E-2</v>
+      </c>
+      <c r="H506">
+        <v>0.105881493435543</v>
+      </c>
+      <c r="I506">
+        <v>0.115329277232619</v>
+      </c>
+      <c r="J506">
+        <v>0.12026496604956601</v>
+      </c>
+      <c r="K506">
+        <v>0.13047629717853801</v>
+      </c>
+      <c r="L506">
+        <v>0.162237591493087</v>
+      </c>
+      <c r="M506">
+        <v>0.233323362010318</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B507">
+        <v>8</v>
+      </c>
+      <c r="C507">
+        <v>0.14002170160198699</v>
+      </c>
+      <c r="D507">
+        <v>0.152469655007274</v>
+      </c>
+      <c r="E507">
+        <v>0.141924344310873</v>
+      </c>
+      <c r="F507">
+        <v>0.141462664697485</v>
+      </c>
+      <c r="G507">
+        <v>0.14471035027038401</v>
+      </c>
+      <c r="H507">
+        <v>0.145548299142753</v>
+      </c>
+      <c r="I507">
+        <v>0.15916375315686401</v>
+      </c>
+      <c r="J507">
+        <v>0.15676622507901999</v>
+      </c>
+      <c r="K507">
+        <v>0.18139649744945199</v>
+      </c>
+      <c r="L507">
+        <v>0.213540511114234</v>
+      </c>
+      <c r="M507">
+        <v>0.235611233547773</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C508">
+        <v>0.145384312275364</v>
+      </c>
+      <c r="D508">
+        <v>0.15905244857629</v>
+      </c>
+      <c r="E508">
+        <v>0.14570041141248399</v>
+      </c>
+      <c r="F508">
+        <v>0.145301852503287</v>
+      </c>
+      <c r="G508">
+        <v>0.149850764411673</v>
+      </c>
+      <c r="H508">
+        <v>0.150881068542081</v>
+      </c>
+      <c r="I508">
+        <v>0.16178648480440799</v>
+      </c>
+      <c r="J508">
+        <v>0.16515993869519799</v>
+      </c>
+      <c r="K508">
+        <v>0.18974628683064301</v>
+      </c>
+      <c r="L508">
+        <v>0.21574569452835901</v>
+      </c>
+      <c r="M508">
+        <v>0.24275946632918299</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C509">
+        <v>0.14781253411691</v>
+      </c>
+      <c r="D509">
+        <v>0.17041669236664</v>
+      </c>
+      <c r="E509">
+        <v>0.153394723254895</v>
+      </c>
+      <c r="F509">
+        <v>0.150726962354431</v>
+      </c>
+      <c r="G509">
+        <v>0.151443279201738</v>
+      </c>
+      <c r="H509">
+        <v>0.157339340574432</v>
+      </c>
+      <c r="I509">
+        <v>0.17146996392757899</v>
+      </c>
+      <c r="J509">
+        <v>0.179513007903671</v>
+      </c>
+      <c r="K509">
+        <v>0.19795242152866799</v>
+      </c>
+      <c r="L509">
+        <v>0.230227630659989</v>
+      </c>
+      <c r="M509">
+        <v>0.24668587892048799</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B510">
+        <v>10</v>
+      </c>
+      <c r="C510">
+        <v>0.146846082731035</v>
+      </c>
+      <c r="D510">
+        <v>0.158764222004558</v>
+      </c>
+      <c r="E510">
+        <v>0.14614021379169101</v>
+      </c>
+      <c r="F510">
+        <v>0.148423513551249</v>
+      </c>
+      <c r="G510">
+        <v>0.15161762869148199</v>
+      </c>
+      <c r="H510">
+        <v>0.15280069593524601</v>
+      </c>
+      <c r="I510">
+        <v>0.15239015797335501</v>
+      </c>
+      <c r="J510">
+        <v>0.168591277057862</v>
+      </c>
+      <c r="K510">
+        <v>0.186742565250547</v>
+      </c>
+      <c r="L510">
+        <v>0.21433486653297801</v>
+      </c>
+      <c r="M510">
+        <v>0.24184754610515</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C511">
+        <v>0.147800338115124</v>
+      </c>
+      <c r="D511">
+        <v>0.159286149555106</v>
+      </c>
+      <c r="E511">
+        <v>0.151784301403149</v>
+      </c>
+      <c r="F511">
+        <v>0.15044030542848799</v>
+      </c>
+      <c r="G511">
+        <v>0.153731081489376</v>
+      </c>
+      <c r="H511">
+        <v>0.15339982492658299</v>
+      </c>
+      <c r="I511">
+        <v>0.15915778119229301</v>
+      </c>
+      <c r="J511">
+        <v>0.17490807633599001</v>
+      </c>
+      <c r="K511">
+        <v>0.19252569159177299</v>
+      </c>
+      <c r="L511">
+        <v>0.223034846036925</v>
+      </c>
+      <c r="M511">
+        <v>0.245375509552792</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C512">
+        <v>0.151105670191096</v>
+      </c>
+      <c r="D512">
+        <v>0.16773639518262801</v>
+      </c>
+      <c r="E512">
+        <v>0.15193634560661401</v>
+      </c>
+      <c r="F512">
+        <v>0.15175589901552</v>
+      </c>
+      <c r="G512">
+        <v>0.16676914112265001</v>
+      </c>
+      <c r="H512">
+        <v>0.15908719032299901</v>
+      </c>
+      <c r="I512">
+        <v>0.161452813130883</v>
+      </c>
+      <c r="J512">
+        <v>0.18176472249266301</v>
+      </c>
+      <c r="K512">
+        <v>0.20397230046627299</v>
+      </c>
+      <c r="L512">
+        <v>0.22544494293230599</v>
+      </c>
+      <c r="M512">
+        <v>0.25396563673379002</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B513">
+        <v>15</v>
+      </c>
+      <c r="C513">
+        <v>0.27887436074006799</v>
+      </c>
+      <c r="D513">
+        <v>0.27155233092273301</v>
+      </c>
+      <c r="E513">
+        <v>0.27933820922895802</v>
+      </c>
+      <c r="F513">
+        <v>0.278173549664266</v>
+      </c>
+      <c r="G513">
+        <v>0.284091452219216</v>
+      </c>
+      <c r="H513">
+        <v>0.28531836248454401</v>
+      </c>
+      <c r="I513">
+        <v>0.28705410211850302</v>
+      </c>
+      <c r="J513">
+        <v>0.28808062766480602</v>
+      </c>
+      <c r="K513">
+        <v>0.29248432474450098</v>
+      </c>
+      <c r="L513">
+        <v>0.31015963605923103</v>
+      </c>
+      <c r="M513">
+        <v>0.35844239697130098</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C514">
+        <v>0.28117904505186703</v>
+      </c>
+      <c r="D514">
+        <v>0.27728169297002297</v>
+      </c>
+      <c r="E514">
+        <v>0.28345764899056197</v>
+      </c>
+      <c r="F514">
+        <v>0.28172841230940998</v>
+      </c>
+      <c r="G514">
+        <v>0.28480387208573998</v>
+      </c>
+      <c r="H514">
+        <v>0.28580278262816</v>
+      </c>
+      <c r="I514">
+        <v>0.29366809090231999</v>
+      </c>
+      <c r="J514">
+        <v>0.291285681158927</v>
+      </c>
+      <c r="K514">
+        <v>0.298411797534753</v>
+      </c>
+      <c r="L514">
+        <v>0.31557830756493099</v>
+      </c>
+      <c r="M514">
+        <v>0.36749791722590702</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C515">
+        <v>0.297739584662565</v>
+      </c>
+      <c r="D515">
+        <v>0.29146209100057202</v>
+      </c>
+      <c r="E515">
+        <v>0.28519639325962598</v>
+      </c>
+      <c r="F515">
+        <v>0.28518011005440902</v>
+      </c>
+      <c r="G515">
+        <v>0.28580513301419302</v>
+      </c>
+      <c r="H515">
+        <v>0.28637543621019501</v>
+      </c>
+      <c r="I515">
+        <v>0.297441102102591</v>
+      </c>
+      <c r="J515">
+        <v>0.29592322109670299</v>
+      </c>
+      <c r="K515">
+        <v>0.29953058154415801</v>
+      </c>
+      <c r="L515">
+        <v>0.32486523647381299</v>
+      </c>
+      <c r="M515">
+        <v>0.36877836681632298</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>19</v>
+      </c>
+      <c r="B516">
+        <v>3</v>
+      </c>
+      <c r="C516">
+        <v>3.4051389564967699E-2</v>
+      </c>
+      <c r="D516">
+        <v>3.2618705619836097E-2</v>
+      </c>
+      <c r="E516">
+        <v>3.5773276919162801E-2</v>
+      </c>
+      <c r="F516">
+        <v>4.0667261549718302E-2</v>
+      </c>
+      <c r="G516">
+        <v>4.4179438725503103E-2</v>
+      </c>
+      <c r="H516">
+        <v>4.7267745989126503E-2</v>
+      </c>
+      <c r="I516">
+        <v>5.8344245287706001E-2</v>
+      </c>
+      <c r="J516">
+        <v>7.4476579036815496E-2</v>
+      </c>
+      <c r="K516">
+        <v>9.35379309984367E-2</v>
+      </c>
+      <c r="L516">
+        <v>0.12646006211165101</v>
+      </c>
+      <c r="M516">
+        <v>0.16822069563214301</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C517">
+        <v>3.8167058579083299E-2</v>
+      </c>
+      <c r="D517">
+        <v>4.4649481253064997E-2</v>
+      </c>
+      <c r="E517">
+        <v>3.7412468832656497E-2</v>
+      </c>
+      <c r="F517">
+        <v>4.4689561088074099E-2</v>
+      </c>
+      <c r="G517">
+        <v>4.9148512348924797E-2</v>
+      </c>
+      <c r="H517">
+        <v>5.0184752167992903E-2</v>
+      </c>
+      <c r="I517">
+        <v>6.7304415847855903E-2</v>
+      </c>
+      <c r="J517">
+        <v>8.3334690035993697E-2</v>
+      </c>
+      <c r="K517">
+        <v>0.10644966409647801</v>
+      </c>
+      <c r="L517">
+        <v>0.13813761794998</v>
+      </c>
+      <c r="M517">
+        <v>0.16830507290542199</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C518">
+        <v>6.9629135246842402E-2</v>
+      </c>
+      <c r="D518">
+        <v>5.8204226797235498E-2</v>
+      </c>
+      <c r="E518">
+        <v>4.13871566669992E-2</v>
+      </c>
+      <c r="F518">
+        <v>5.1134718230449697E-2</v>
+      </c>
+      <c r="G518">
+        <v>5.2260142764850498E-2</v>
+      </c>
+      <c r="H518">
+        <v>5.3635177997055299E-2</v>
+      </c>
+      <c r="I518">
+        <v>6.9974937096735398E-2</v>
+      </c>
+      <c r="J518">
+        <v>8.7810727661982502E-2</v>
+      </c>
+      <c r="K518">
+        <v>0.114042537810079</v>
+      </c>
+      <c r="L518">
+        <v>0.14732572564747001</v>
+      </c>
+      <c r="M518" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B519">
+        <v>5</v>
+      </c>
+      <c r="C519">
+        <v>6.7552350054237403E-2</v>
+      </c>
+      <c r="D519">
+        <v>7.1047823877605401E-2</v>
+      </c>
+      <c r="E519">
+        <v>6.8348614349886594E-2</v>
+      </c>
+      <c r="F519">
+        <v>6.9737209987383697E-2</v>
+      </c>
+      <c r="G519">
+        <v>7.0999152739734395E-2</v>
+      </c>
+      <c r="H519">
+        <v>6.9797875087893202E-2</v>
+      </c>
+      <c r="I519">
+        <v>7.0498153330286195E-2</v>
+      </c>
+      <c r="J519">
+        <v>6.9835974788488006E-2</v>
+      </c>
+      <c r="K519">
+        <v>7.1112683893924306E-2</v>
+      </c>
+      <c r="L519">
+        <v>0.11280092188570399</v>
+      </c>
+      <c r="M519">
+        <v>0.15480044805087301</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C520">
+        <v>6.8111108228205694E-2</v>
+      </c>
+      <c r="D520">
+        <v>7.3732353895858194E-2</v>
+      </c>
+      <c r="E520">
+        <v>7.0545898615639702E-2</v>
+      </c>
+      <c r="F520">
+        <v>7.0678911008709294E-2</v>
+      </c>
+      <c r="G520">
+        <v>7.2110965033973795E-2</v>
+      </c>
+      <c r="H520">
+        <v>7.2256795177239194E-2</v>
+      </c>
+      <c r="I520">
+        <v>7.7155137528192294E-2</v>
+      </c>
+      <c r="J520">
+        <v>7.9473222978635294E-2</v>
+      </c>
+      <c r="K520">
+        <v>9.4326147928577006E-2</v>
+      </c>
+      <c r="L520">
+        <v>0.118886209816879</v>
+      </c>
+      <c r="M520">
+        <v>0.160441368869709</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C521">
+        <v>7.1466883599229702E-2</v>
+      </c>
+      <c r="D521">
+        <v>7.6873619539437402E-2</v>
+      </c>
+      <c r="E521">
+        <v>7.0747231132873206E-2</v>
+      </c>
+      <c r="F521">
+        <v>7.2495942452049794E-2</v>
+      </c>
+      <c r="G521">
+        <v>7.3652826462943896E-2</v>
+      </c>
+      <c r="H521">
+        <v>7.7294703926943195E-2</v>
+      </c>
+      <c r="I521">
+        <v>8.4488392942461701E-2</v>
+      </c>
+      <c r="J521">
+        <v>8.3148115105555295E-2</v>
+      </c>
+      <c r="K521">
+        <v>9.8828620247524895E-2</v>
+      </c>
+      <c r="L521">
+        <v>0.12953622820041699</v>
+      </c>
+      <c r="M521">
+        <v>0.16537197293640399</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B522">
+        <v>8</v>
+      </c>
+      <c r="C522">
+        <v>0.13094213595797399</v>
+      </c>
+      <c r="D522">
+        <v>0.114590597639872</v>
+      </c>
+      <c r="E522">
+        <v>0.13209340295625499</v>
+      </c>
+      <c r="F522">
+        <v>0.127999756641901</v>
+      </c>
+      <c r="G522">
+        <v>0.13250010384768901</v>
+      </c>
+      <c r="H522">
+        <v>0.131703022495502</v>
+      </c>
+      <c r="I522">
+        <v>0.133100182670882</v>
+      </c>
+      <c r="J522">
+        <v>0.13289707172121401</v>
+      </c>
+      <c r="K522">
+        <v>0.13560664242782899</v>
+      </c>
+      <c r="L522">
+        <v>0.13853343812664501</v>
+      </c>
+      <c r="M522">
+        <v>0.14325148805940299</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C523">
+        <v>0.138546033435719</v>
+      </c>
+      <c r="D523">
+        <v>0.119572702952257</v>
+      </c>
+      <c r="E523">
+        <v>0.13492468319902301</v>
+      </c>
+      <c r="F523">
+        <v>0.13574389740103801</v>
+      </c>
+      <c r="G523">
+        <v>0.13863637749344501</v>
+      </c>
+      <c r="H523">
+        <v>0.13665796736507901</v>
+      </c>
+      <c r="I523">
+        <v>0.13665962828043501</v>
+      </c>
+      <c r="J523">
+        <v>0.13658681049031701</v>
+      </c>
+      <c r="K523">
+        <v>0.136590380385681</v>
+      </c>
+      <c r="L523">
+        <v>0.14268957473882199</v>
+      </c>
+      <c r="M523">
+        <v>0.14805237024826001</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C524">
+        <v>0.14204094831526001</v>
+      </c>
+      <c r="D524">
+        <v>0.12622035063294901</v>
+      </c>
+      <c r="E524">
+        <v>0.14005232132887199</v>
+      </c>
+      <c r="F524">
+        <v>0.13866418395407001</v>
+      </c>
+      <c r="G524">
+        <v>0.13947961308540099</v>
+      </c>
+      <c r="H524">
+        <v>0.142318876786687</v>
+      </c>
+      <c r="I524">
+        <v>0.14008509887453599</v>
+      </c>
+      <c r="J524">
+        <v>0.13767288866869701</v>
+      </c>
+      <c r="K524">
+        <v>0.14216537418464001</v>
+      </c>
+      <c r="L524">
+        <v>0.15389406250002599</v>
+      </c>
+      <c r="M524">
+        <v>0.169128221138133</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B525">
+        <v>10</v>
+      </c>
+      <c r="C525">
+        <v>0.14354812868622399</v>
+      </c>
+      <c r="D525">
+        <v>0.12546000342515901</v>
+      </c>
+      <c r="E525">
+        <v>0.141893602370529</v>
+      </c>
+      <c r="F525">
+        <v>0.141331983510293</v>
+      </c>
+      <c r="G525">
+        <v>0.142727939736253</v>
+      </c>
+      <c r="H525">
+        <v>0.143322952953954</v>
+      </c>
+      <c r="I525">
+        <v>0.141992194264626</v>
+      </c>
+      <c r="J525">
+        <v>0.14212818470303901</v>
+      </c>
+      <c r="K525">
+        <v>0.142786907000756</v>
+      </c>
+      <c r="L525">
+        <v>0.14764100613101</v>
+      </c>
+      <c r="M525">
+        <v>0.14218754909620099</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C526">
+        <v>0.14510196142765899</v>
+      </c>
+      <c r="D526">
+        <v>0.128578667206693</v>
+      </c>
+      <c r="E526">
+        <v>0.14270265601955701</v>
+      </c>
+      <c r="F526">
+        <v>0.14394226054124001</v>
+      </c>
+      <c r="G526">
+        <v>0.14414127858558901</v>
+      </c>
+      <c r="H526">
+        <v>0.144440920460186</v>
+      </c>
+      <c r="I526">
+        <v>0.14355461107859299</v>
+      </c>
+      <c r="J526">
+        <v>0.143624370802793</v>
+      </c>
+      <c r="K526">
+        <v>0.146111641399083</v>
+      </c>
+      <c r="L526">
+        <v>0.15141907630835599</v>
+      </c>
+      <c r="M526">
+        <v>0.14452299069910099</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C527">
+        <v>0.14831590986840101</v>
+      </c>
+      <c r="D527">
+        <v>0.143494819684095</v>
+      </c>
+      <c r="E527">
+        <v>0.144844746821051</v>
+      </c>
+      <c r="F527">
+        <v>0.14544974855100401</v>
+      </c>
+      <c r="G527">
+        <v>0.145753635197825</v>
+      </c>
+      <c r="H527">
+        <v>0.145340161561963</v>
+      </c>
+      <c r="I527">
+        <v>0.14499039715262901</v>
+      </c>
+      <c r="J527">
+        <v>0.14528465310210401</v>
+      </c>
+      <c r="K527">
+        <v>0.151250922749117</v>
+      </c>
+      <c r="L527">
+        <v>0.154402468449298</v>
+      </c>
+      <c r="M527">
+        <v>0.14930656816634399</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B528">
+        <v>15</v>
+      </c>
+      <c r="C528">
+        <v>0.180919850422887</v>
+      </c>
+      <c r="D528">
+        <v>0.16758496235926901</v>
+      </c>
+      <c r="E528">
+        <v>0.180581841991382</v>
+      </c>
+      <c r="F528">
+        <v>0.167203598042452</v>
+      </c>
+      <c r="G528">
+        <v>0.17805139047771601</v>
+      </c>
+      <c r="H528">
+        <v>0.17608529890090799</v>
+      </c>
+      <c r="I528">
+        <v>0.16637794518875601</v>
+      </c>
+      <c r="J528">
+        <v>0.190264488020679</v>
+      </c>
+      <c r="K528">
+        <v>0.182401940471942</v>
+      </c>
+      <c r="L528">
+        <v>0.177050374384631</v>
+      </c>
+      <c r="M528">
+        <v>0.17988079484729</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C529">
+        <v>0.188048276606221</v>
+      </c>
+      <c r="D529">
+        <v>0.17128982417636099</v>
+      </c>
+      <c r="E529">
+        <v>0.185893247340986</v>
+      </c>
+      <c r="F529">
+        <v>0.185851690638968</v>
+      </c>
+      <c r="G529">
+        <v>0.18239905735244499</v>
+      </c>
+      <c r="H529">
+        <v>0.18964031355945499</v>
+      </c>
+      <c r="I529">
+        <v>0.18718368566403701</v>
+      </c>
+      <c r="J529">
+        <v>0.19193412447324401</v>
+      </c>
+      <c r="K529">
+        <v>0.19042509468667901</v>
+      </c>
+      <c r="L529">
+        <v>0.18669028341754099</v>
+      </c>
+      <c r="M529">
+        <v>0.192709424782018</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C530">
+        <v>0.19573642347761799</v>
+      </c>
+      <c r="D530">
+        <v>0.17398962043917601</v>
+      </c>
+      <c r="E530">
+        <v>0.192182544419117</v>
+      </c>
+      <c r="F530">
+        <v>0.190024297306118</v>
+      </c>
+      <c r="G530">
+        <v>0.19475686565699399</v>
+      </c>
+      <c r="H530">
+        <v>0.19326339500295001</v>
+      </c>
+      <c r="I530">
+        <v>0.19327518888311801</v>
+      </c>
+      <c r="J530">
+        <v>0.195540314692011</v>
+      </c>
+      <c r="K530">
+        <v>0.193086267934624</v>
+      </c>
+      <c r="L530">
+        <v>0.19687579456978399</v>
+      </c>
+      <c r="M530">
+        <v>0.194358241851426</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>20</v>
+      </c>
+      <c r="B531">
+        <v>3</v>
+      </c>
+      <c r="C531">
+        <v>1.8048647572757499E-2</v>
+      </c>
+      <c r="D531">
+        <v>1.8840013446045301E-2</v>
+      </c>
+      <c r="E531">
+        <v>1.8105060901893299E-2</v>
+      </c>
+      <c r="F531">
+        <v>1.7956846186016302E-2</v>
+      </c>
+      <c r="G531">
+        <v>1.8088868645965199E-2</v>
+      </c>
+      <c r="H531">
+        <v>1.82050401054837E-2</v>
+      </c>
+      <c r="I531">
+        <v>1.8061388504666799E-2</v>
+      </c>
+      <c r="J531">
+        <v>1.8072257430165401E-2</v>
+      </c>
+      <c r="K531">
+        <v>1.8197666886801401E-2</v>
+      </c>
+      <c r="L531">
+        <v>1.81467536908392E-2</v>
+      </c>
+      <c r="M531">
+        <v>1.8055400150236801E-2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C532">
+        <v>1.8196511277771301E-2</v>
+      </c>
+      <c r="D532">
+        <v>1.95833116694407E-2</v>
+      </c>
+      <c r="E532">
+        <v>1.8333074120795999E-2</v>
+      </c>
+      <c r="F532">
+        <v>1.84129236294098E-2</v>
+      </c>
+      <c r="G532">
+        <v>1.8477622256518202E-2</v>
+      </c>
+      <c r="H532">
+        <v>1.83950893653167E-2</v>
+      </c>
+      <c r="I532">
+        <v>1.85243904670165E-2</v>
+      </c>
+      <c r="J532">
+        <v>1.8448216524397799E-2</v>
+      </c>
+      <c r="K532">
+        <v>1.83266613335639E-2</v>
+      </c>
+      <c r="L532">
+        <v>1.8601766296790698E-2</v>
+      </c>
+      <c r="M532">
+        <v>1.84437006266795E-2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C533">
+        <v>1.8304197167805999E-2</v>
+      </c>
+      <c r="D533">
+        <v>2.03957456205783E-2</v>
+      </c>
+      <c r="E533">
+        <v>1.87388784527164E-2</v>
+      </c>
+      <c r="F533">
+        <v>1.8856213317307899E-2</v>
+      </c>
+      <c r="G533">
+        <v>1.8580491170207901E-2</v>
+      </c>
+      <c r="H533">
+        <v>1.8754679337744998E-2</v>
+      </c>
+      <c r="I533">
+        <v>1.8624512452771701E-2</v>
+      </c>
+      <c r="J533">
+        <v>1.8740111101622301E-2</v>
+      </c>
+      <c r="K533">
+        <v>1.8715773410161701E-2</v>
+      </c>
+      <c r="L533">
+        <v>1.8712575502173999E-2</v>
+      </c>
+      <c r="M533">
+        <v>1.9447313062625E-2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B534">
+        <v>5</v>
+      </c>
+      <c r="C534">
+        <v>4.3087382981938802E-2</v>
+      </c>
+      <c r="D534">
+        <v>2.0731678499923498E-2</v>
+      </c>
+      <c r="E534">
+        <v>4.6234568959142998E-2</v>
+      </c>
+      <c r="F534">
+        <v>4.7761597139367402E-2</v>
+      </c>
+      <c r="G534">
+        <v>4.4441282370673199E-2</v>
+      </c>
+      <c r="H534">
+        <v>4.1717299142199502E-2</v>
+      </c>
+      <c r="I534">
+        <v>3.3235485448732803E-2</v>
+      </c>
+      <c r="J534">
+        <v>4.2998446246015697E-2</v>
+      </c>
+      <c r="K534">
+        <v>4.6125990150196E-2</v>
+      </c>
+      <c r="L534">
+        <v>3.71939039729417E-2</v>
+      </c>
+      <c r="M534">
+        <v>4.1005754359897402E-2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C535">
+        <v>4.7412776499601302E-2</v>
+      </c>
+      <c r="D535">
+        <v>2.1321718476833701E-2</v>
+      </c>
+      <c r="E535">
+        <v>4.7453983183858899E-2</v>
+      </c>
+      <c r="F535">
+        <v>4.8681677388591499E-2</v>
+      </c>
+      <c r="G535">
+        <v>4.6431167794643798E-2</v>
+      </c>
+      <c r="H535">
+        <v>4.3454966301922797E-2</v>
+      </c>
+      <c r="I535">
+        <v>4.9623439080750197E-2</v>
+      </c>
+      <c r="J535">
+        <v>5.0044736587415997E-2</v>
+      </c>
+      <c r="K535">
+        <v>4.8502899537897499E-2</v>
+      </c>
+      <c r="L535">
+        <v>4.3507368347142097E-2</v>
+      </c>
+      <c r="M535">
+        <v>4.3743103046127003E-2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C536">
+        <v>4.9596595263804402E-2</v>
+      </c>
+      <c r="D536">
+        <v>2.21042193511355E-2</v>
+      </c>
+      <c r="E536">
+        <v>4.9642228692803499E-2</v>
+      </c>
+      <c r="F536">
+        <v>5.16820964307581E-2</v>
+      </c>
+      <c r="G536">
+        <v>4.9418526785186503E-2</v>
+      </c>
+      <c r="H536">
+        <v>5.0388246773894203E-2</v>
+      </c>
+      <c r="I536">
+        <v>5.5781278380543302E-2</v>
+      </c>
+      <c r="J536">
+        <v>5.6071640453537699E-2</v>
+      </c>
+      <c r="K536">
+        <v>5.0846208622208497E-2</v>
+      </c>
+      <c r="L536">
+        <v>5.2777901465804203E-2</v>
+      </c>
+      <c r="M536">
+        <v>5.1063841913470999E-2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B537">
+        <v>8</v>
+      </c>
+      <c r="C537">
+        <v>0.15695854431440701</v>
+      </c>
+      <c r="D537">
+        <v>4.4356963776865599E-2</v>
+      </c>
+      <c r="E537">
+        <v>0.18434003553806599</v>
+      </c>
+      <c r="F537">
+        <v>0.22553041761433301</v>
+      </c>
+      <c r="G537" t="s">
+        <v>18</v>
+      </c>
+      <c r="H537" t="s">
+        <v>18</v>
+      </c>
+      <c r="I537" t="s">
+        <v>18</v>
+      </c>
+      <c r="J537" t="s">
+        <v>18</v>
+      </c>
+      <c r="K537" t="s">
+        <v>18</v>
+      </c>
+      <c r="L537" t="s">
+        <v>18</v>
+      </c>
+      <c r="M537" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C538">
+        <v>0.21947231674130999</v>
+      </c>
+      <c r="D538">
+        <v>4.8433250527761498E-2</v>
+      </c>
+      <c r="E538">
+        <v>0.220925444920471</v>
+      </c>
+      <c r="F538">
+        <v>0.23993277410116801</v>
+      </c>
+      <c r="G538" t="s">
+        <v>18</v>
+      </c>
+      <c r="H538" t="s">
+        <v>18</v>
+      </c>
+      <c r="I538" t="s">
+        <v>18</v>
+      </c>
+      <c r="J538" t="s">
+        <v>18</v>
+      </c>
+      <c r="K538" t="s">
+        <v>18</v>
+      </c>
+      <c r="L538" t="s">
+        <v>18</v>
+      </c>
+      <c r="M538" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C539">
+        <v>0.24390543780948801</v>
+      </c>
+      <c r="D539">
+        <v>5.7238674119420199E-2</v>
+      </c>
+      <c r="E539">
+        <v>0.233033303181997</v>
+      </c>
+      <c r="F539">
+        <v>0.26152665771035699</v>
+      </c>
+      <c r="G539" t="s">
+        <v>18</v>
+      </c>
+      <c r="H539" t="s">
+        <v>18</v>
+      </c>
+      <c r="I539" t="s">
+        <v>18</v>
+      </c>
+      <c r="J539" t="s">
+        <v>18</v>
+      </c>
+      <c r="K539" t="s">
+        <v>18</v>
+      </c>
+      <c r="L539" t="s">
+        <v>18</v>
+      </c>
+      <c r="M539" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B540">
+        <v>10</v>
+      </c>
+      <c r="C540">
+        <v>0.218183877752818</v>
+      </c>
+      <c r="D540">
+        <v>4.6172892265899601E-2</v>
+      </c>
+      <c r="E540">
+        <v>0.21602415978321901</v>
+      </c>
+      <c r="F540">
+        <v>0.21950411580085699</v>
+      </c>
+      <c r="G540">
+        <v>0.23831455779118099</v>
+      </c>
+      <c r="H540" t="s">
+        <v>18</v>
+      </c>
+      <c r="I540" t="s">
+        <v>18</v>
+      </c>
+      <c r="J540" t="s">
+        <v>18</v>
+      </c>
+      <c r="K540" t="s">
+        <v>18</v>
+      </c>
+      <c r="L540" t="s">
+        <v>18</v>
+      </c>
+      <c r="M540" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C541">
+        <v>0.218867496157614</v>
+      </c>
+      <c r="D541">
+        <v>5.3782010479343702E-2</v>
+      </c>
+      <c r="E541">
+        <v>0.22061933574301501</v>
+      </c>
+      <c r="F541">
+        <v>0.221107591882406</v>
+      </c>
+      <c r="G541">
+        <v>0.26642693232880299</v>
+      </c>
+      <c r="H541" t="s">
+        <v>18</v>
+      </c>
+      <c r="I541" t="s">
+        <v>18</v>
+      </c>
+      <c r="J541" t="s">
+        <v>18</v>
+      </c>
+      <c r="K541" t="s">
+        <v>18</v>
+      </c>
+      <c r="L541" t="s">
+        <v>18</v>
+      </c>
+      <c r="M541" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C542">
+        <v>0.22142190904037601</v>
+      </c>
+      <c r="D542">
+        <v>6.4860902359131001E-2</v>
+      </c>
+      <c r="E542">
+        <v>0.224055531293893</v>
+      </c>
+      <c r="F542">
+        <v>0.22305041940976</v>
+      </c>
+      <c r="G542" t="s">
+        <v>18</v>
+      </c>
+      <c r="H542" t="s">
+        <v>18</v>
+      </c>
+      <c r="I542" t="s">
+        <v>18</v>
+      </c>
+      <c r="J542" t="s">
+        <v>18</v>
+      </c>
+      <c r="K542" t="s">
+        <v>18</v>
+      </c>
+      <c r="L542" t="s">
+        <v>18</v>
+      </c>
+      <c r="M542" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B543">
+        <v>15</v>
+      </c>
+      <c r="C543">
+        <v>0.23987334768219801</v>
+      </c>
+      <c r="D543">
+        <v>0.114970691630983</v>
+      </c>
+      <c r="E543" t="s">
+        <v>18</v>
+      </c>
+      <c r="F543" t="s">
+        <v>18</v>
+      </c>
+      <c r="G543" t="s">
+        <v>18</v>
+      </c>
+      <c r="H543" t="s">
+        <v>18</v>
+      </c>
+      <c r="I543" t="s">
+        <v>18</v>
+      </c>
+      <c r="J543" t="s">
+        <v>18</v>
+      </c>
+      <c r="K543" t="s">
+        <v>18</v>
+      </c>
+      <c r="L543" t="s">
+        <v>18</v>
+      </c>
+      <c r="M543" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C544">
+        <v>0.24945751459492599</v>
+      </c>
+      <c r="D544">
+        <v>0.14037887494524201</v>
+      </c>
+      <c r="E544" t="s">
+        <v>18</v>
+      </c>
+      <c r="F544" t="s">
+        <v>18</v>
+      </c>
+      <c r="G544" t="s">
+        <v>18</v>
+      </c>
+      <c r="H544" t="s">
+        <v>18</v>
+      </c>
+      <c r="I544" t="s">
+        <v>18</v>
+      </c>
+      <c r="J544" t="s">
+        <v>18</v>
+      </c>
+      <c r="K544" t="s">
+        <v>18</v>
+      </c>
+      <c r="L544" t="s">
+        <v>18</v>
+      </c>
+      <c r="M544" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C545" t="s">
+        <v>18</v>
+      </c>
+      <c r="D545">
+        <v>0.16146105153207699</v>
+      </c>
+      <c r="E545" t="s">
+        <v>18</v>
+      </c>
+      <c r="F545" t="s">
+        <v>18</v>
+      </c>
+      <c r="G545" t="s">
+        <v>18</v>
+      </c>
+      <c r="H545" t="s">
+        <v>18</v>
+      </c>
+      <c r="I545" t="s">
+        <v>18</v>
+      </c>
+      <c r="J545" t="s">
+        <v>18</v>
+      </c>
+      <c r="K545" t="s">
+        <v>18</v>
+      </c>
+      <c r="L545" t="s">
+        <v>18</v>
+      </c>
+      <c r="M545" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>21</v>
+      </c>
+      <c r="B546">
+        <v>3</v>
+      </c>
+      <c r="C546">
+        <v>2.9680577189418099E-2</v>
+      </c>
+      <c r="D546">
+        <v>2.50959171505745E-2</v>
+      </c>
+      <c r="E546">
+        <v>2.8997930817903601E-2</v>
+      </c>
+      <c r="F546">
+        <v>2.8683888118293501E-2</v>
+      </c>
+      <c r="G546">
+        <v>2.8711194902114299E-2</v>
+      </c>
+      <c r="H546">
+        <v>2.9124750943236799E-2</v>
+      </c>
+      <c r="I546">
+        <v>2.7755950205526202E-2</v>
+      </c>
+      <c r="J546">
+        <v>2.78706541797798E-2</v>
+      </c>
+      <c r="K546">
+        <v>2.92503532954504E-2</v>
+      </c>
+      <c r="L546">
+        <v>2.9805744777734101E-2</v>
+      </c>
+      <c r="M546">
+        <v>3.00743061654004E-2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C547">
+        <v>3.0507275956346499E-2</v>
+      </c>
+      <c r="D547">
+        <v>2.7992631268285301E-2</v>
+      </c>
+      <c r="E547">
+        <v>2.99450131824366E-2</v>
+      </c>
+      <c r="F547">
+        <v>2.9872656266263699E-2</v>
+      </c>
+      <c r="G547">
+        <v>3.02834352326447E-2</v>
+      </c>
+      <c r="H547">
+        <v>3.02315234035739E-2</v>
+      </c>
+      <c r="I547">
+        <v>2.93452012580083E-2</v>
+      </c>
+      <c r="J547">
+        <v>3.0022225867091398E-2</v>
+      </c>
+      <c r="K547">
+        <v>3.0926403446923299E-2</v>
+      </c>
+      <c r="L547">
+        <v>3.0833505494747799E-2</v>
+      </c>
+      <c r="M547">
+        <v>3.0812545976759299E-2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C548">
+        <v>3.11289020671233E-2</v>
+      </c>
+      <c r="D548">
+        <v>2.9826696425659702E-2</v>
+      </c>
+      <c r="E548">
+        <v>3.07221139508413E-2</v>
+      </c>
+      <c r="F548">
+        <v>3.0756350235464299E-2</v>
+      </c>
+      <c r="G548">
+        <v>3.0818547795837901E-2</v>
+      </c>
+      <c r="H548">
+        <v>3.0904670721208099E-2</v>
+      </c>
+      <c r="I548">
+        <v>3.0997652950079502E-2</v>
+      </c>
+      <c r="J548">
+        <v>3.10144625368407E-2</v>
+      </c>
+      <c r="K548">
+        <v>3.11294740060097E-2</v>
+      </c>
+      <c r="L548">
+        <v>3.09304565746992E-2</v>
+      </c>
+      <c r="M548">
+        <v>3.10307685792569E-2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B549">
+        <v>5</v>
+      </c>
+      <c r="C549">
+        <v>6.1955302935795001E-2</v>
+      </c>
+      <c r="D549">
+        <v>6.6159231327814899E-2</v>
+      </c>
+      <c r="E549">
+        <v>5.9978381949584901E-2</v>
+      </c>
+      <c r="F549">
+        <v>5.9509695616643599E-2</v>
+      </c>
+      <c r="G549">
+        <v>6.0390477298632998E-2</v>
+      </c>
+      <c r="H549">
+        <v>6.0361906687337701E-2</v>
+      </c>
+      <c r="I549">
+        <v>5.9493595654240602E-2</v>
+      </c>
+      <c r="J549">
+        <v>5.9718563954776198E-2</v>
+      </c>
+      <c r="K549">
+        <v>6.0423653073238701E-2</v>
+      </c>
+      <c r="L549">
+        <v>6.0777207947488601E-2</v>
+      </c>
+      <c r="M549">
+        <v>6.1408884354588099E-2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C550">
+        <v>6.2284841173743402E-2</v>
+      </c>
+      <c r="D550">
+        <v>7.0108974746195402E-2</v>
+      </c>
+      <c r="E550">
+        <v>6.1030144594950299E-2</v>
+      </c>
+      <c r="F550">
+        <v>6.1629496726669702E-2</v>
+      </c>
+      <c r="G550">
+        <v>6.1910431647263703E-2</v>
+      </c>
+      <c r="H550">
+        <v>6.2584313722304705E-2</v>
+      </c>
+      <c r="I550">
+        <v>6.1761139411837099E-2</v>
+      </c>
+      <c r="J550">
+        <v>6.1986613865340601E-2</v>
+      </c>
+      <c r="K550">
+        <v>6.1499460881043702E-2</v>
+      </c>
+      <c r="L550">
+        <v>6.1677082871825599E-2</v>
+      </c>
+      <c r="M550">
+        <v>6.4101283982952506E-2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C551">
+        <v>6.3529883735171502E-2</v>
+      </c>
+      <c r="D551">
+        <v>7.4438628584516706E-2</v>
+      </c>
+      <c r="E551">
+        <v>6.2053341266603002E-2</v>
+      </c>
+      <c r="F551">
+        <v>6.3434370221629094E-2</v>
+      </c>
+      <c r="G551">
+        <v>6.4443829012151094E-2</v>
+      </c>
+      <c r="H551">
+        <v>6.2970966672896797E-2</v>
+      </c>
+      <c r="I551">
+        <v>6.3847564454002803E-2</v>
+      </c>
+      <c r="J551">
+        <v>6.2153822234518E-2</v>
+      </c>
+      <c r="K551">
+        <v>6.1995966607673703E-2</v>
+      </c>
+      <c r="L551">
+        <v>6.2644123747508301E-2</v>
+      </c>
+      <c r="M551">
+        <v>6.5777035395308603E-2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B552">
+        <v>8</v>
+      </c>
+      <c r="C552">
+        <v>0.143145153092299</v>
+      </c>
+      <c r="D552">
+        <v>0.102657435335629</v>
+      </c>
+      <c r="E552">
+        <v>0.142702014553653</v>
+      </c>
+      <c r="F552">
+        <v>0.14961088102213099</v>
+      </c>
+      <c r="G552">
+        <v>0.14947958294762501</v>
+      </c>
+      <c r="H552">
+        <v>0.14881588306756599</v>
+      </c>
+      <c r="I552">
+        <v>0.151549315845835</v>
+      </c>
+      <c r="J552">
+        <v>0.155391076637096</v>
+      </c>
+      <c r="K552">
+        <v>0.156369598731952</v>
+      </c>
+      <c r="L552">
+        <v>0.14520375238438099</v>
+      </c>
+      <c r="M552">
+        <v>0.15200462446750199</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C553">
+        <v>0.15121400309852401</v>
+      </c>
+      <c r="D553">
+        <v>0.108042807568034</v>
+      </c>
+      <c r="E553">
+        <v>0.14915602162335601</v>
+      </c>
+      <c r="F553">
+        <v>0.15105010731386101</v>
+      </c>
+      <c r="G553">
+        <v>0.15359794717787301</v>
+      </c>
+      <c r="H553">
+        <v>0.15016332979733099</v>
+      </c>
+      <c r="I553">
+        <v>0.15483494936721001</v>
+      </c>
+      <c r="J553">
+        <v>0.15555468893339799</v>
+      </c>
+      <c r="K553">
+        <v>0.16176228650834401</v>
+      </c>
+      <c r="L553">
+        <v>0.15494364636074001</v>
+      </c>
+      <c r="M553">
+        <v>0.16117890799203499</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C554">
+        <v>0.15547788265918999</v>
+      </c>
+      <c r="D554">
+        <v>0.14064272217978199</v>
+      </c>
+      <c r="E554">
+        <v>0.152602877218002</v>
+      </c>
+      <c r="F554">
+        <v>0.15234570927299401</v>
+      </c>
+      <c r="G554">
+        <v>0.15525017261174001</v>
+      </c>
+      <c r="H554">
+        <v>0.15641260143029401</v>
+      </c>
+      <c r="I554">
+        <v>0.157277208062514</v>
+      </c>
+      <c r="J554">
+        <v>0.15894986050044099</v>
+      </c>
+      <c r="K554">
+        <v>0.16351135284921101</v>
+      </c>
+      <c r="L554">
+        <v>0.162305321546138</v>
+      </c>
+      <c r="M554">
+        <v>0.16284304297726501</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B555">
+        <v>10</v>
+      </c>
+      <c r="C555">
+        <v>0.151344525579483</v>
+      </c>
+      <c r="D555">
+        <v>9.6412653014106398E-2</v>
+      </c>
+      <c r="E555">
+        <v>0.15185689774921399</v>
+      </c>
+      <c r="F555">
+        <v>0.153617812408814</v>
+      </c>
+      <c r="G555">
+        <v>0.15383032686879</v>
+      </c>
+      <c r="H555">
+        <v>0.153452952150268</v>
+      </c>
+      <c r="I555">
+        <v>0.15370903819996501</v>
+      </c>
+      <c r="J555">
+        <v>0.154448822836036</v>
+      </c>
+      <c r="K555">
+        <v>0.155503217477966</v>
+      </c>
+      <c r="L555">
+        <v>0.14541529701352901</v>
+      </c>
+      <c r="M555">
+        <v>0.152306995675873</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C556">
+        <v>0.15316044011444499</v>
+      </c>
+      <c r="D556">
+        <v>0.121520394105257</v>
+      </c>
+      <c r="E556">
+        <v>0.15382925038276701</v>
+      </c>
+      <c r="F556">
+        <v>0.154170592881023</v>
+      </c>
+      <c r="G556">
+        <v>0.15436364166490901</v>
+      </c>
+      <c r="H556">
+        <v>0.15523042098692</v>
+      </c>
+      <c r="I556">
+        <v>0.15445221832960301</v>
+      </c>
+      <c r="J556">
+        <v>0.155332535818065</v>
+      </c>
+      <c r="K556">
+        <v>0.15688776506714999</v>
+      </c>
+      <c r="L556">
+        <v>0.15175928982078801</v>
+      </c>
+      <c r="M556">
+        <v>0.15416057814727299</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C557">
+        <v>0.155067050248414</v>
+      </c>
+      <c r="D557">
+        <v>0.19483697595619401</v>
+      </c>
+      <c r="E557">
+        <v>0.157158176739297</v>
+      </c>
+      <c r="F557">
+        <v>0.15618424249519</v>
+      </c>
+      <c r="G557">
+        <v>0.15500276760658899</v>
+      </c>
+      <c r="H557">
+        <v>0.15688946543090801</v>
+      </c>
+      <c r="I557">
+        <v>0.15582010476595601</v>
+      </c>
+      <c r="J557">
+        <v>0.15980866958548701</v>
+      </c>
+      <c r="K557">
+        <v>0.158257090214901</v>
+      </c>
+      <c r="L557">
+        <v>0.155604694336443</v>
+      </c>
+      <c r="M557">
+        <v>0.15432196507956</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B558">
+        <v>15</v>
+      </c>
+      <c r="C558">
+        <v>0.151373602068097</v>
+      </c>
+      <c r="D558">
+        <v>0.31365971932804099</v>
+      </c>
+      <c r="E558">
+        <v>0.15499852174697101</v>
+      </c>
+      <c r="F558">
+        <v>0.152943030225134</v>
+      </c>
+      <c r="G558">
+        <v>0.14478421728157401</v>
+      </c>
+      <c r="H558">
+        <v>0.20471978251075801</v>
+      </c>
+      <c r="I558">
+        <v>0.17858985189850199</v>
+      </c>
+      <c r="J558">
+        <v>0.13497021080938601</v>
+      </c>
+      <c r="K558">
+        <v>0.14634735046390401</v>
+      </c>
+      <c r="L558">
+        <v>0.26062454569513699</v>
+      </c>
+      <c r="M558">
+        <v>0.302913524361765</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C559">
+        <v>0.19508212201046901</v>
+      </c>
+      <c r="D559">
+        <v>0.36645669309066198</v>
+      </c>
+      <c r="E559">
+        <v>0.168043764799512</v>
+      </c>
+      <c r="F559">
+        <v>0.17712422112054199</v>
+      </c>
+      <c r="G559">
+        <v>0.19479480725395601</v>
+      </c>
+      <c r="H559">
+        <v>0.34507393147063198</v>
+      </c>
+      <c r="I559">
+        <v>0.22304724105881699</v>
+      </c>
+      <c r="J559">
+        <v>0.205300166284486</v>
+      </c>
+      <c r="K559">
+        <v>0.213410563877347</v>
+      </c>
+      <c r="L559">
+        <v>0.29636819991959901</v>
+      </c>
+      <c r="M559">
+        <v>0.32706215775780401</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C560">
+        <v>0.20834484191845301</v>
+      </c>
+      <c r="D560">
+        <v>0.386797700416176</v>
+      </c>
+      <c r="E560">
+        <v>0.222899449745112</v>
+      </c>
+      <c r="F560">
+        <v>0.310200366589855</v>
+      </c>
+      <c r="G560">
+        <v>0.29495014564055599</v>
+      </c>
+      <c r="H560">
+        <v>0.39152571409569598</v>
+      </c>
+      <c r="I560">
+        <v>0.33210181011119</v>
+      </c>
+      <c r="J560">
+        <v>0.38323049211126498</v>
+      </c>
+      <c r="K560">
+        <v>0.29890153355959398</v>
+      </c>
+      <c r="L560">
+        <v>0.427248456044936</v>
+      </c>
+      <c r="M560">
+        <v>0.35147734000403202</v>
+      </c>
+    </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C561">
+        <v>15</v>
+      </c>
+      <c r="D561">
+        <v>38</v>
+      </c>
+      <c r="E561">
+        <v>10</v>
+      </c>
+      <c r="F561">
+        <v>3</v>
+      </c>
+      <c r="G561">
+        <v>3</v>
+      </c>
+      <c r="H561">
+        <v>4</v>
+      </c>
+      <c r="I561">
+        <v>4</v>
+      </c>
+      <c r="J561">
+        <v>3</v>
+      </c>
+      <c r="K561">
+        <v>4</v>
+      </c>
+      <c r="L561">
+        <v>1</v>
+      </c>
+      <c r="M561">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>0</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1</v>
+      </c>
+      <c r="C565" t="s">
+        <v>25</v>
+      </c>
+      <c r="D565" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>15</v>
+      </c>
+      <c r="B566">
+        <v>3</v>
+      </c>
+      <c r="C566" s="1">
+        <v>4.2552236851844201E-4</v>
+      </c>
+      <c r="D566" s="1">
+        <v>4.2929872216241298E-4</v>
+      </c>
+    </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C567" s="1">
+        <v>4.42635481058376E-4</v>
+      </c>
+      <c r="D567" s="1">
+        <v>4.29501842348716E-4</v>
+      </c>
+    </row>
+    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C568" s="1">
+        <v>4.6096244000192599E-4</v>
+      </c>
+      <c r="D568" s="1">
+        <v>4.3217100140827E-4</v>
+      </c>
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B569">
+        <v>5</v>
+      </c>
+      <c r="C569">
+        <v>2.5731290935124798E-3</v>
+      </c>
+      <c r="D569">
+        <v>2.48083802345142E-3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C570">
+        <v>2.5905730959195801E-3</v>
+      </c>
+      <c r="D570">
+        <v>2.4883960927803298E-3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C571">
+        <v>2.6729540955561298E-3</v>
+      </c>
+      <c r="D571">
+        <v>2.5000081838206499E-3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B572">
+        <v>8</v>
+      </c>
+      <c r="C572">
+        <v>2.1100966500803699E-3</v>
+      </c>
+      <c r="D572">
+        <v>1.98978985826668E-3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C573">
+        <v>2.30650619386612E-3</v>
+      </c>
+      <c r="D573">
+        <v>2.0280241580903401E-3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C574">
+        <v>2.70059059560444E-3</v>
+      </c>
+      <c r="D574">
+        <v>2.0590743077830201E-3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B575">
+        <v>10</v>
+      </c>
+      <c r="C575">
+        <v>2.5529109170546399E-3</v>
+      </c>
+      <c r="D575">
+        <v>2.1467703180878899E-3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C576">
+        <v>2.57615496036978E-3</v>
+      </c>
+      <c r="D576">
+        <v>2.1743263734998E-3</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C577">
+        <v>2.6332437929823E-3</v>
+      </c>
+      <c r="D577">
+        <v>2.2018354560005599E-3</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B578">
+        <v>15</v>
+      </c>
+      <c r="C578">
+        <v>3.6511496543244599E-3</v>
+      </c>
+      <c r="D578">
+        <v>3.3630416722996602E-3</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C579">
+        <v>3.6534778093095101E-3</v>
+      </c>
+      <c r="D579">
+        <v>3.6442126052308901E-3</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C580">
+        <v>3.7006008347664101E-3</v>
+      </c>
+      <c r="D580">
+        <v>3.6984684502372198E-3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>16</v>
+      </c>
+      <c r="B581">
+        <v>3</v>
+      </c>
+      <c r="C581">
+        <v>0.12656675181909099</v>
+      </c>
+      <c r="D581">
+        <v>0.126569771838453</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C582">
+        <v>0.12660026914393699</v>
+      </c>
+      <c r="D582">
+        <v>0.12658032413512699</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C583">
+        <v>0.12671810912395601</v>
+      </c>
+      <c r="D583">
+        <v>0.12660979322362101</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B584">
+        <v>5</v>
+      </c>
+      <c r="C584">
+        <v>4.1064414192993502E-3</v>
+      </c>
+      <c r="D584">
+        <v>0.27019091626191499</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C585">
+        <v>0.27005867818648299</v>
+      </c>
+      <c r="D585">
+        <v>0.270250465173556</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C586">
+        <v>0.270214581191488</v>
+      </c>
+      <c r="D586">
+        <v>0.27030501476755198</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B587">
+        <v>8</v>
+      </c>
+      <c r="C587">
+        <v>3.3573871787273201E-3</v>
+      </c>
+      <c r="D587">
+        <v>0.10839036137494</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C588">
+        <v>0.108274260970725</v>
+      </c>
+      <c r="D588">
+        <v>0.10842440918987201</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C589">
+        <v>0.108307487919902</v>
+      </c>
+      <c r="D589">
+        <v>0.10844318702035299</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B590">
+        <v>10</v>
+      </c>
+      <c r="C590">
+        <v>4.2584924114493104E-3</v>
+      </c>
+      <c r="D590">
+        <v>0.131906380623147</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C591">
+        <v>0.13181823832958001</v>
+      </c>
+      <c r="D591">
+        <v>0.13192570475750101</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C592">
+        <v>0.13188917722128399</v>
+      </c>
+      <c r="D592">
+        <v>0.131938637595089</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B593">
+        <v>15</v>
+      </c>
+      <c r="C593">
+        <v>0.13197365649811499</v>
+      </c>
+      <c r="D593">
+        <v>6.0589713958253098E-3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C594">
+        <v>0.13216943513255699</v>
+      </c>
+      <c r="D594">
+        <v>0.13201485153977699</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C595">
+        <v>0.13266052474597101</v>
+      </c>
+      <c r="D595">
+        <v>0.132464560695182</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>17</v>
+      </c>
+      <c r="B596">
+        <v>3</v>
+      </c>
+      <c r="C596">
+        <v>1.8231905885808201E-3</v>
+      </c>
+      <c r="D596">
+        <v>2.3575233029348702E-3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C597">
+        <v>1.9819305718735102E-3</v>
+      </c>
+      <c r="D597">
+        <v>2.41394062597429E-3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C598">
+        <v>2.4209894665292498E-3</v>
+      </c>
+      <c r="D598">
+        <v>2.7464267971533101E-3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B599">
+        <v>5</v>
+      </c>
+      <c r="C599">
+        <v>4.9799979989651397E-3</v>
+      </c>
+      <c r="D599">
+        <v>6.1075669007663496E-3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C600">
+        <v>5.2547339505171998E-3</v>
+      </c>
+      <c r="D600">
+        <v>6.4110535173939696E-3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C601">
+        <v>5.5045880744062203E-3</v>
+      </c>
+      <c r="D601">
+        <v>6.5593550200181002E-3</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B602">
+        <v>8</v>
+      </c>
+      <c r="C602">
+        <v>2.8682727728917301E-3</v>
+      </c>
+      <c r="D602">
+        <v>3.1053956025030999E-3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C603">
+        <v>2.9957116173650899E-3</v>
+      </c>
+      <c r="D603">
+        <v>3.1425257135545498E-3</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C604">
+        <v>3.1031712912455798E-3</v>
+      </c>
+      <c r="D604">
+        <v>3.2481028445440498E-3</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B605">
+        <v>10</v>
+      </c>
+      <c r="C605">
+        <v>3.0260942831315299E-3</v>
+      </c>
+      <c r="D605">
+        <v>3.0918137969256701E-3</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C606">
+        <v>3.0885844927691299E-3</v>
+      </c>
+      <c r="D606">
+        <v>3.1835942677104398E-3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C607">
+        <v>3.10844974663896E-3</v>
+      </c>
+      <c r="D607">
+        <v>3.2222196897162998E-3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B608">
+        <v>15</v>
+      </c>
+      <c r="C608">
+        <v>4.0224715594963396E-3</v>
+      </c>
+      <c r="D608">
+        <v>4.3261479917877299E-3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C609">
+        <v>4.0965508319824699E-3</v>
+      </c>
+      <c r="D609">
+        <v>4.3761299012472299E-3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C610">
+        <v>4.1692363280330796E-3</v>
+      </c>
+      <c r="D610">
+        <v>4.4744434713672801E-3</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>19</v>
+      </c>
+      <c r="B611">
+        <v>3</v>
+      </c>
+      <c r="C611" s="1">
+        <v>4.7629851000127401E-4</v>
+      </c>
+      <c r="D611">
+        <v>1.45481782652263E-3</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C612" s="1">
+        <v>4.9231964940182795E-4</v>
+      </c>
+      <c r="D612">
+        <v>1.6729828613552E-3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C613" s="1">
+        <v>6.1453610219817803E-4</v>
+      </c>
+      <c r="D613">
+        <v>1.80820081473149E-3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B614">
+        <v>5</v>
+      </c>
+      <c r="C614">
+        <v>2.7912209848190601E-3</v>
+      </c>
+      <c r="D614">
+        <v>2.7038507356483498E-3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C615">
+        <v>2.8119920653150599E-3</v>
+      </c>
+      <c r="D615">
+        <v>3.4383910511193599E-3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C616">
+        <v>2.9219902654116698E-3</v>
+      </c>
+      <c r="D616">
+        <v>3.9125116366633197E-3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B617">
+        <v>8</v>
+      </c>
+      <c r="C617">
+        <v>1.7400943295285199E-3</v>
+      </c>
+      <c r="D617">
+        <v>2.0205289635001201E-3</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C618">
+        <v>1.8237307558935901E-3</v>
+      </c>
+      <c r="D618">
+        <v>2.0555015761902001E-3</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C619">
+        <v>1.93620112815871E-3</v>
+      </c>
+      <c r="D619">
+        <v>2.2186127171560902E-3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B620">
+        <v>10</v>
+      </c>
+      <c r="C620">
+        <v>1.9593332524237301E-3</v>
+      </c>
+      <c r="D620">
+        <v>2.17436590270153E-3</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C621">
+        <v>1.9785105511271701E-3</v>
+      </c>
+      <c r="D621">
+        <v>2.19260119719505E-3</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C622">
+        <v>2.0152635732621099E-3</v>
+      </c>
+      <c r="D622">
+        <v>2.2076785728553398E-3</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B623">
+        <v>15</v>
+      </c>
+      <c r="C623">
+        <v>3.46430230240337E-3</v>
+      </c>
+      <c r="D623">
+        <v>3.3059312589931102E-3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C624">
+        <v>3.5527469517668601E-3</v>
+      </c>
+      <c r="D624">
+        <v>3.8238074873890001E-3</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C625">
+        <v>3.61844068535204E-3</v>
+      </c>
+      <c r="D625">
+        <v>3.9479404858294301E-3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>20</v>
+      </c>
+      <c r="B626">
+        <v>3</v>
+      </c>
+      <c r="C626" s="1">
+        <v>8.0029767941783595E-4</v>
+      </c>
+      <c r="D626" s="1">
+        <v>8.84106399027832E-4</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C627" s="1">
+        <v>8.1257714478562596E-4</v>
+      </c>
+      <c r="D627" s="1">
+        <v>8.88113932255892E-4</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C628" s="1">
+        <v>8.4280166546348695E-4</v>
+      </c>
+      <c r="D628" s="1">
+        <v>9.0239380645958502E-4</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B629">
+        <v>5</v>
+      </c>
+      <c r="C629">
+        <v>2.3698869220312099E-3</v>
+      </c>
+      <c r="D629">
+        <v>3.52257806582182E-3</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C630">
+        <v>2.4164927703184602E-3</v>
+      </c>
+      <c r="D630">
+        <v>3.7843946369037801E-3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C631">
+        <v>2.45770618157203E-3</v>
+      </c>
+      <c r="D631">
+        <v>3.8173456471302502E-3</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B632">
+        <v>8</v>
+      </c>
+      <c r="C632">
+        <v>3.7368164647483201E-3</v>
+      </c>
+      <c r="D632" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C633">
+        <v>3.8677180305197599E-3</v>
+      </c>
+      <c r="D633" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C634">
+        <v>4.11750459630854E-3</v>
+      </c>
+      <c r="D634" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B635">
+        <v>10</v>
+      </c>
+      <c r="C635">
+        <v>4.4877989219219002E-3</v>
+      </c>
+      <c r="D635" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C636">
+        <v>4.5654139527332802E-3</v>
+      </c>
+      <c r="D636" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C637">
+        <v>4.8346913777846503E-3</v>
+      </c>
+      <c r="D637" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B638">
+        <v>15</v>
+      </c>
+      <c r="C638">
+        <v>6.48963820694194E-3</v>
+      </c>
+      <c r="D638" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C639">
+        <v>7.7483980710183198E-3</v>
+      </c>
+      <c r="D639" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C640">
+        <v>8.3724885881976893E-3</v>
+      </c>
+      <c r="D640" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>21</v>
+      </c>
+      <c r="B641">
+        <v>3</v>
+      </c>
+      <c r="C641" s="1">
+        <v>7.9987531472695004E-4</v>
+      </c>
+      <c r="D641" s="1">
+        <v>8.5624877743344097E-4</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C642" s="1">
+        <v>8.1683650430118397E-4</v>
+      </c>
+      <c r="D642" s="1">
+        <v>8.8041703302210695E-4</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C643" s="1">
+        <v>8.5626751709692004E-4</v>
+      </c>
+      <c r="D643" s="1">
+        <v>8.9388881209274496E-4</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B644">
+        <v>5</v>
+      </c>
+      <c r="C644">
+        <v>5.4447141780144996E-3</v>
+      </c>
+      <c r="D644">
+        <v>6.1889774820916002E-3</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C645">
+        <v>5.4887610090100002E-3</v>
+      </c>
+      <c r="D645">
+        <v>6.3249603193014699E-3</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C646">
+        <v>5.6741517873225601E-3</v>
+      </c>
+      <c r="D646">
+        <v>6.5167841973146597E-3</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B647">
+        <v>8</v>
+      </c>
+      <c r="C647">
+        <v>5.4989967002036103E-3</v>
+      </c>
+      <c r="D647">
+        <v>6.9959913649092001E-3</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C648">
+        <v>5.9324452488367799E-3</v>
+      </c>
+      <c r="D648">
+        <v>7.2010064051211999E-3</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C649">
+        <v>6.4379934360293996E-3</v>
+      </c>
+      <c r="D649">
+        <v>7.53506153201439E-3</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B650">
+        <v>10</v>
+      </c>
+      <c r="C650">
+        <v>7.2374625661499603E-3</v>
+      </c>
+      <c r="D650">
+        <v>9.1484143665459695E-3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C651">
+        <v>7.7824890017389996E-3</v>
+      </c>
+      <c r="D651">
+        <v>9.2079875855108004E-3</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C652">
+        <v>7.9981694329375897E-3</v>
+      </c>
+      <c r="D652">
+        <v>9.4115088680008004E-3</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B653">
+        <v>15</v>
+      </c>
+      <c r="C653">
+        <v>1.7748539904202498E-2</v>
+      </c>
+      <c r="D653">
+        <v>1.24686149511605E-2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C654">
+        <v>2.0573193485271899E-2</v>
+      </c>
+      <c r="D654">
+        <v>1.4569931640178399E-2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C655">
+        <v>2.1873375524291399E-2</v>
+      </c>
+      <c r="D655">
+        <v>1.6488693010811802E-2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C656">
+        <v>66</v>
+      </c>
+      <c r="D656">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>0</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1</v>
+      </c>
+      <c r="C658" t="s">
+        <v>25</v>
+      </c>
+      <c r="D658" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>15</v>
+      </c>
+      <c r="B659">
+        <v>3</v>
+      </c>
+      <c r="C659">
+        <v>2.6721077940496201E-2</v>
+      </c>
+      <c r="D659">
+        <v>2.7988148223397701E-2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C660">
+        <v>2.8485399142077102E-2</v>
+      </c>
+      <c r="D660">
+        <v>2.8326144307993101E-2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C661">
+        <v>2.9700840985181901E-2</v>
+      </c>
+      <c r="D661">
+        <v>2.85496623649645E-2</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B662">
+        <v>5</v>
+      </c>
+      <c r="C662">
+        <v>7.0632876293333605E-2</v>
+      </c>
+      <c r="D662">
+        <v>6.6004137677818195E-2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C663">
+        <v>7.1618458212237807E-2</v>
+      </c>
+      <c r="D663">
+        <v>6.6303043508255499E-2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C664">
+        <v>7.3396172802949702E-2</v>
+      </c>
+      <c r="D664">
+        <v>6.7005969024411402E-2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B665">
+        <v>8</v>
+      </c>
+      <c r="C665">
+        <v>0.13605370873609399</v>
+      </c>
+      <c r="D665">
+        <v>0.13120496423528399</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C666">
+        <v>0.14865247607614801</v>
+      </c>
+      <c r="D666">
+        <v>0.135310493307435</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C667">
+        <v>0.16141245649108901</v>
+      </c>
+      <c r="D667">
+        <v>0.13838759996949601</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B668">
+        <v>10</v>
+      </c>
+      <c r="C668">
+        <v>0.15793933107858199</v>
+      </c>
+      <c r="D668">
+        <v>0.14128193571581299</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C669">
+        <v>0.16141078959212199</v>
+      </c>
+      <c r="D669">
+        <v>0.144087047526643</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C670">
+        <v>0.163222864443092</v>
+      </c>
+      <c r="D670">
+        <v>0.14690747875516699</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B671">
+        <v>15</v>
+      </c>
+      <c r="C671">
+        <v>0.18101844197528599</v>
+      </c>
+      <c r="D671">
+        <v>0.181242646991564</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C672">
+        <v>0.181775229267022</v>
+      </c>
+      <c r="D672">
+        <v>0.18584779355211001</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C673">
+        <v>0.188668036544266</v>
+      </c>
+      <c r="D673">
+        <v>0.189907959711658</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>16</v>
+      </c>
+      <c r="B674">
+        <v>3</v>
+      </c>
+      <c r="C674">
+        <v>8.0047834629517602</v>
+      </c>
+      <c r="D674">
+        <v>8.0049720211075996</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C675">
+        <v>8.00686567470669</v>
+      </c>
+      <c r="D675">
+        <v>8.0056348811007094</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C676">
+        <v>8.0143131094487892</v>
+      </c>
+      <c r="D676">
+        <v>8.0074921713132792</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B677">
+        <v>5</v>
+      </c>
+      <c r="C677">
+        <v>8.6326518523332604E-2</v>
+      </c>
+      <c r="D677">
+        <v>11.526628518993499</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C678">
+        <v>11.521069338985701</v>
+      </c>
+      <c r="D678">
+        <v>11.529185733727299</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C679">
+        <v>11.5277052428136</v>
+      </c>
+      <c r="D679">
+        <v>11.531489630820399</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B680">
+        <v>8</v>
+      </c>
+      <c r="C680">
+        <v>0.16577861880514799</v>
+      </c>
+      <c r="D680">
+        <v>11.591413860463</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C681">
+        <v>11.5797175629307</v>
+      </c>
+      <c r="D681">
+        <v>11.5951496896105</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C682">
+        <v>11.5831701041689</v>
+      </c>
+      <c r="D682">
+        <v>11.5973036106311</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B683">
+        <v>10</v>
+      </c>
+      <c r="C683">
+        <v>0.22510368418941901</v>
+      </c>
+      <c r="D683">
+        <v>14.1066784426921</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C684">
+        <v>14.0977491096967</v>
+      </c>
+      <c r="D684">
+        <v>14.1087034664298</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C685">
+        <v>14.105448134110301</v>
+      </c>
+      <c r="D685">
+        <v>14.110101502410499</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B686">
+        <v>15</v>
+      </c>
+      <c r="C686">
+        <v>14.2263939683333</v>
+      </c>
+      <c r="D686">
+        <v>0.33393531553189498</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C687">
+        <v>14.246268962919199</v>
+      </c>
+      <c r="D687">
+        <v>14.2301526491781</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C688">
+        <v>14.297187081253901</v>
+      </c>
+      <c r="D688">
+        <v>14.276781110734399</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>17</v>
+      </c>
+      <c r="B689">
+        <v>3</v>
+      </c>
+      <c r="C689">
+        <v>9.1328293935467306E-2</v>
+      </c>
+      <c r="D689">
+        <v>9.9919990667625899E-2</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C690">
+        <v>9.3254628977339105E-2</v>
+      </c>
+      <c r="D690">
+        <v>0.101828019012302</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C691">
+        <v>0.105331949354879</v>
+      </c>
+      <c r="D691">
+        <v>0.110068012238781</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B692">
+        <v>5</v>
+      </c>
+      <c r="C692">
+        <v>9.4903400783828501E-2</v>
+      </c>
+      <c r="D692">
+        <v>0.104441592348891</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C693">
+        <v>9.9534051263483997E-2</v>
+      </c>
+      <c r="D693">
+        <v>0.111907889168603</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C694">
+        <v>0.101924888418433</v>
+      </c>
+      <c r="D694">
+        <v>0.115329277232619</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B695">
+        <v>8</v>
+      </c>
+      <c r="C695">
+        <v>0.14921901153072201</v>
+      </c>
+      <c r="D695">
+        <v>0.15916375315686401</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C696">
+        <v>0.15369820842132101</v>
+      </c>
+      <c r="D696">
+        <v>0.16178648480440799</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C697">
+        <v>0.16869242071068</v>
+      </c>
+      <c r="D697">
+        <v>0.17146996392757899</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B698">
+        <v>10</v>
+      </c>
+      <c r="C698">
+        <v>0.15292915575209201</v>
+      </c>
+      <c r="D698">
+        <v>0.15239015797335501</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C699">
+        <v>0.15881846734803901</v>
+      </c>
+      <c r="D699">
+        <v>0.15915778119229301</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C700">
+        <v>0.16433420861619699</v>
+      </c>
+      <c r="D700">
+        <v>0.161452813130883</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B701">
+        <v>15</v>
+      </c>
+      <c r="C701">
+        <v>0.262732552779533</v>
+      </c>
+      <c r="D701">
+        <v>0.28705410211850302</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C702">
+        <v>0.26838776393260699</v>
+      </c>
+      <c r="D702">
+        <v>0.29366809090231999</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C703">
+        <v>0.274091233307107</v>
+      </c>
+      <c r="D703">
+        <v>0.297441102102591</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>19</v>
+      </c>
+      <c r="B704">
+        <v>3</v>
+      </c>
+      <c r="C704">
+        <v>3.2158700148970702E-2</v>
+      </c>
+      <c r="D704">
+        <v>5.8344245287706001E-2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C705">
+        <v>3.2803577809286499E-2</v>
+      </c>
+      <c r="D705">
+        <v>6.7304415847855903E-2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C706">
+        <v>4.8694376166676601E-2</v>
+      </c>
+      <c r="D706">
+        <v>6.9974937096735398E-2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B707">
+        <v>5</v>
+      </c>
+      <c r="C707">
+        <v>7.2529452876044398E-2</v>
+      </c>
+      <c r="D707">
+        <v>7.0498153330286195E-2</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C708">
+        <v>7.3723613714084493E-2</v>
+      </c>
+      <c r="D708">
+        <v>7.7155137528192294E-2</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C709">
+        <v>7.4051331691223396E-2</v>
+      </c>
+      <c r="D709">
+        <v>8.4488392942461701E-2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B710">
+        <v>8</v>
+      </c>
+      <c r="C710">
+        <v>0.115345263614022</v>
+      </c>
+      <c r="D710">
+        <v>0.133100182670882</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C711">
+        <v>0.117494601358967</v>
+      </c>
+      <c r="D711">
+        <v>0.13665962828043501</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C712">
+        <v>0.121829224951665</v>
+      </c>
+      <c r="D712">
+        <v>0.14008509887453599</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B713">
+        <v>10</v>
+      </c>
+      <c r="C713">
+        <v>0.12514111458513799</v>
+      </c>
+      <c r="D713">
+        <v>0.141992194264626</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C714">
+        <v>0.12750412499487501</v>
+      </c>
+      <c r="D714">
+        <v>0.14355461107859299</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C715">
+        <v>0.13019607106997599</v>
+      </c>
+      <c r="D715">
+        <v>0.14499039715262901</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B716">
+        <v>15</v>
+      </c>
+      <c r="C716">
+        <v>0.168526211479163</v>
+      </c>
+      <c r="D716">
+        <v>0.16637794518875601</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C717">
+        <v>0.17104697642798899</v>
+      </c>
+      <c r="D717">
+        <v>0.18718368566403701</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C718">
+        <v>0.17484715178037999</v>
+      </c>
+      <c r="D718">
+        <v>0.19327518888311801</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>20</v>
+      </c>
+      <c r="B719">
+        <v>3</v>
+      </c>
+      <c r="C719">
+        <v>1.8330424889892401E-2</v>
+      </c>
+      <c r="D719">
+        <v>1.8061388504666799E-2</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C720">
+        <v>1.8906369153995999E-2</v>
+      </c>
+      <c r="D720">
+        <v>1.85243904670165E-2</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C721">
+        <v>2.05447880183251E-2</v>
+      </c>
+      <c r="D721">
+        <v>1.8624512452771701E-2</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B722">
+        <v>5</v>
+      </c>
+      <c r="C722">
+        <v>2.04990422570707E-2</v>
+      </c>
+      <c r="D722">
+        <v>3.3235485448732803E-2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C723">
+        <v>2.11059513337572E-2</v>
+      </c>
+      <c r="D723">
+        <v>4.9623439080750197E-2</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C724">
+        <v>2.2358133724896399E-2</v>
+      </c>
+      <c r="D724">
+        <v>5.5781278380543302E-2</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B725">
+        <v>8</v>
+      </c>
+      <c r="C725">
+        <v>4.4104674757777199E-2</v>
+      </c>
+      <c r="D725" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C726">
+        <v>4.6712133592376102E-2</v>
+      </c>
+      <c r="D726" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C727">
+        <v>5.02684550349565E-2</v>
+      </c>
+      <c r="D727" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B728">
+        <v>10</v>
+      </c>
+      <c r="C728">
+        <v>4.3878631581559399E-2</v>
+      </c>
+      <c r="D728" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C729">
+        <v>5.0260927674968203E-2</v>
+      </c>
+      <c r="D729" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C730">
+        <v>6.0339808663466103E-2</v>
+      </c>
+      <c r="D730" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B731">
+        <v>15</v>
+      </c>
+      <c r="C731">
+        <v>9.1946924975041006E-2</v>
+      </c>
+      <c r="D731" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C732">
+        <v>0.14662211708723899</v>
+      </c>
+      <c r="D732" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C733">
+        <v>0.153767351859291</v>
+      </c>
+      <c r="D733" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>21</v>
+      </c>
+      <c r="B734">
+        <v>3</v>
+      </c>
+      <c r="C734">
+        <v>2.6254756484959299E-2</v>
+      </c>
+      <c r="D734">
+        <v>2.7755950205526202E-2</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C735">
+        <v>2.8015417923295899E-2</v>
+      </c>
+      <c r="D735">
+        <v>2.93452012580083E-2</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C736">
+        <v>2.9955845596407502E-2</v>
+      </c>
+      <c r="D736">
+        <v>3.0997652950079502E-2</v>
+      </c>
+    </row>
+    <row r="737" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B737">
+        <v>5</v>
+      </c>
+      <c r="C737">
+        <v>6.4580988842624296E-2</v>
+      </c>
+      <c r="D737">
+        <v>5.9493595654240602E-2</v>
+      </c>
+    </row>
+    <row r="738" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C738">
+        <v>6.6489920216978304E-2</v>
+      </c>
+      <c r="D738">
+        <v>6.1761139411837099E-2</v>
+      </c>
+    </row>
+    <row r="739" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C739">
+        <v>7.3487855132796695E-2</v>
+      </c>
+      <c r="D739">
+        <v>6.3847564454002803E-2</v>
+      </c>
+    </row>
+    <row r="740" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B740">
+        <v>8</v>
+      </c>
+      <c r="C740">
+        <v>0.102549070593148</v>
+      </c>
+      <c r="D740">
+        <v>0.151549315845835</v>
+      </c>
+    </row>
+    <row r="741" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C741">
+        <v>0.110004141298968</v>
+      </c>
+      <c r="D741">
+        <v>0.15483494936721001</v>
+      </c>
+    </row>
+    <row r="742" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C742">
+        <v>0.154474555089259</v>
+      </c>
+      <c r="D742">
+        <v>0.157277208062514</v>
+      </c>
+    </row>
+    <row r="743" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B743">
+        <v>10</v>
+      </c>
+      <c r="C743">
+        <v>9.2476842851286198E-2</v>
+      </c>
+      <c r="D743">
+        <v>0.15370903819996501</v>
+      </c>
+    </row>
+    <row r="744" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C744">
+        <v>0.12301457982554199</v>
+      </c>
+      <c r="D744">
+        <v>0.15445221832960301</v>
+      </c>
+    </row>
+    <row r="745" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C745">
+        <v>0.130677130970624</v>
+      </c>
+      <c r="D745">
+        <v>0.15582010476595601</v>
+      </c>
+    </row>
+    <row r="746" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B746">
+        <v>15</v>
+      </c>
+      <c r="C746">
+        <v>0.30326103986416603</v>
+      </c>
+      <c r="D746">
+        <v>0.17858985189850199</v>
+      </c>
+    </row>
+    <row r="747" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C747">
+        <v>0.427910182674069</v>
+      </c>
+      <c r="D747">
+        <v>0.22304724105881699</v>
+      </c>
+    </row>
+    <row r="748" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C748">
+        <v>0.46639710693035202</v>
+      </c>
+      <c r="D748">
+        <v>0.33210181011119</v>
+      </c>
+    </row>
+    <row r="749" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C749">
+        <v>61</v>
+      </c>
+      <c r="D749">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
